--- a/database/industries/lastic/pekavir/balancesheet/quarterly.xlsx
+++ b/database/industries/lastic/pekavir/balancesheet/quarterly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pekavir\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4E5622-6895-46A7-A1B9-42F947D0285D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEB6EB6-E2EC-474C-B702-34AFA95A377B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>پکویر-کویر تایر</t>
@@ -37,21 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1400/03</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/06</t>
   </si>
   <si>
@@ -68,21 +53,6 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
-  </si>
-  <si>
-    <t>1399-05-28 (2)</t>
-  </si>
-  <si>
-    <t>1399-07-27</t>
-  </si>
-  <si>
-    <t>1400-12-02 (9)</t>
-  </si>
-  <si>
-    <t>1400-01-29</t>
-  </si>
-  <si>
-    <t>1400-05-28 (4)</t>
   </si>
   <si>
     <t>1400-07-28</t>
@@ -728,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M59"/>
+  <dimension ref="B1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -736,14 +706,12 @@
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -751,13 +719,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -767,13 +730,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -783,13 +741,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -797,13 +750,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -813,13 +761,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -829,13 +772,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -843,13 +781,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -869,59 +802,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -929,15 +832,10 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -945,195 +843,115 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>193691</v>
+        <v>581910</v>
       </c>
       <c r="E12" s="15">
-        <v>938590</v>
+        <v>581417</v>
       </c>
       <c r="F12" s="15">
-        <v>2349738</v>
+        <v>648217</v>
       </c>
       <c r="G12" s="15">
-        <v>575854</v>
+        <v>1063322</v>
       </c>
       <c r="H12" s="15">
-        <v>767516</v>
-      </c>
-      <c r="I12" s="15">
-        <v>581910</v>
-      </c>
-      <c r="J12" s="15">
-        <v>581417</v>
-      </c>
-      <c r="K12" s="15">
-        <v>648217</v>
-      </c>
-      <c r="L12" s="15">
-        <v>1063322</v>
-      </c>
-      <c r="M12" s="15">
         <v>196279</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>107500</v>
+        <v>58000</v>
       </c>
       <c r="E13" s="11">
-        <v>107500</v>
+        <v>0</v>
       </c>
       <c r="F13" s="11">
-        <v>58000</v>
+        <v>161000</v>
       </c>
       <c r="G13" s="11">
-        <v>58000</v>
+        <v>0</v>
       </c>
       <c r="H13" s="11">
-        <v>58000</v>
-      </c>
-      <c r="I13" s="11">
-        <v>58000</v>
-      </c>
-      <c r="J13" s="11">
-        <v>0</v>
-      </c>
-      <c r="K13" s="11">
-        <v>161000</v>
-      </c>
-      <c r="L13" s="11">
-        <v>0</v>
-      </c>
-      <c r="M13" s="11">
         <v>4998</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>1675525</v>
+        <v>5900624</v>
       </c>
       <c r="E14" s="15">
-        <v>1676993</v>
+        <v>5366986</v>
       </c>
       <c r="F14" s="15">
-        <v>2420728</v>
+        <v>7347795</v>
       </c>
       <c r="G14" s="15">
-        <v>2633811</v>
+        <v>5663775</v>
       </c>
       <c r="H14" s="15">
-        <v>5307261</v>
-      </c>
-      <c r="I14" s="15">
-        <v>5900624</v>
-      </c>
-      <c r="J14" s="15">
-        <v>5366986</v>
-      </c>
-      <c r="K14" s="15">
-        <v>7347795</v>
-      </c>
-      <c r="L14" s="15">
-        <v>5663775</v>
-      </c>
-      <c r="M14" s="15">
         <v>5950610</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>1154639</v>
+        <v>4367693</v>
       </c>
       <c r="E15" s="11">
-        <v>1331635</v>
+        <v>3309072</v>
       </c>
       <c r="F15" s="11">
-        <v>2136589</v>
+        <v>3797879</v>
       </c>
       <c r="G15" s="11">
-        <v>3191472</v>
+        <v>3937220</v>
       </c>
       <c r="H15" s="11">
-        <v>3730432</v>
-      </c>
-      <c r="I15" s="11">
-        <v>4367693</v>
-      </c>
-      <c r="J15" s="11">
-        <v>3309072</v>
-      </c>
-      <c r="K15" s="11">
-        <v>3797879</v>
-      </c>
-      <c r="L15" s="11">
-        <v>3937220</v>
-      </c>
-      <c r="M15" s="11">
         <v>4180563</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>848972</v>
+        <v>1583292</v>
       </c>
       <c r="E16" s="15">
-        <v>2300775</v>
+        <v>2129458</v>
       </c>
       <c r="F16" s="15">
-        <v>2306578</v>
+        <v>6443878</v>
       </c>
       <c r="G16" s="15">
-        <v>2774891</v>
+        <v>2301659</v>
       </c>
       <c r="H16" s="15">
-        <v>1410419</v>
-      </c>
-      <c r="I16" s="15">
-        <v>1583292</v>
-      </c>
-      <c r="J16" s="15">
-        <v>2129458</v>
-      </c>
-      <c r="K16" s="15">
-        <v>6443878</v>
-      </c>
-      <c r="L16" s="15">
-        <v>2301659</v>
-      </c>
-      <c r="M16" s="15">
         <v>2303478</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
@@ -1146,138 +964,78 @@
         <v>0</v>
       </c>
       <c r="G17" s="11">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="H17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-      <c r="J17" s="11">
-        <v>0</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11">
         <v>1100</v>
       </c>
-      <c r="M17" s="11">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>3980327</v>
+        <v>12491519</v>
       </c>
       <c r="E18" s="17">
-        <v>6355493</v>
+        <v>11386933</v>
       </c>
       <c r="F18" s="17">
-        <v>9271633</v>
+        <v>18398769</v>
       </c>
       <c r="G18" s="17">
-        <v>9234028</v>
+        <v>12967076</v>
       </c>
       <c r="H18" s="17">
-        <v>11273628</v>
-      </c>
-      <c r="I18" s="17">
-        <v>12491519</v>
-      </c>
-      <c r="J18" s="17">
-        <v>11386933</v>
-      </c>
-      <c r="K18" s="17">
-        <v>18398769</v>
-      </c>
-      <c r="L18" s="17">
-        <v>12967076</v>
-      </c>
-      <c r="M18" s="17">
         <v>12637028</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
-        <v>1598</v>
+        <v>2265</v>
       </c>
       <c r="E19" s="11">
-        <v>1544</v>
+        <v>2825</v>
       </c>
       <c r="F19" s="11">
-        <v>1091</v>
+        <v>3255</v>
       </c>
       <c r="G19" s="11">
-        <v>1239</v>
+        <v>4974</v>
       </c>
       <c r="H19" s="11">
-        <v>1504</v>
-      </c>
-      <c r="I19" s="11">
-        <v>2265</v>
-      </c>
-      <c r="J19" s="11">
-        <v>2825</v>
-      </c>
-      <c r="K19" s="11">
-        <v>3255</v>
-      </c>
-      <c r="L19" s="11">
-        <v>4974</v>
-      </c>
-      <c r="M19" s="11">
         <v>12812</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>40305</v>
+        <v>119625</v>
       </c>
       <c r="E20" s="15">
-        <v>40305</v>
+        <v>86664</v>
       </c>
       <c r="F20" s="15">
-        <v>40414</v>
+        <v>124625</v>
       </c>
       <c r="G20" s="15">
-        <v>40414</v>
+        <v>88164</v>
       </c>
       <c r="H20" s="15">
-        <v>76875</v>
-      </c>
-      <c r="I20" s="15">
-        <v>119625</v>
-      </c>
-      <c r="J20" s="15">
-        <v>86664</v>
-      </c>
-      <c r="K20" s="15">
-        <v>124625</v>
-      </c>
-      <c r="L20" s="15">
-        <v>88164</v>
-      </c>
-      <c r="M20" s="15">
         <v>53164</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1295,241 +1053,136 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-      <c r="I21" s="11">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11">
-        <v>0</v>
-      </c>
-      <c r="K21" s="11">
-        <v>0</v>
-      </c>
-      <c r="L21" s="11">
-        <v>0</v>
-      </c>
-      <c r="M21" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>1625943</v>
+        <v>4736219</v>
       </c>
       <c r="E22" s="15">
-        <v>1974950</v>
+        <v>5634211</v>
       </c>
       <c r="F22" s="15">
-        <v>3044886</v>
+        <v>6007059</v>
       </c>
       <c r="G22" s="15">
-        <v>3448150</v>
+        <v>6818711</v>
       </c>
       <c r="H22" s="15">
-        <v>4265948</v>
-      </c>
-      <c r="I22" s="15">
-        <v>4736219</v>
-      </c>
-      <c r="J22" s="15">
-        <v>5634211</v>
-      </c>
-      <c r="K22" s="15">
-        <v>6007059</v>
-      </c>
-      <c r="L22" s="15">
-        <v>6818711</v>
-      </c>
-      <c r="M22" s="15">
         <v>7978970</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>46707</v>
+        <v>48278</v>
       </c>
       <c r="E23" s="11">
-        <v>7624</v>
+        <v>86602</v>
       </c>
       <c r="F23" s="11">
-        <v>7745</v>
+        <v>61806</v>
       </c>
       <c r="G23" s="11">
-        <v>8353</v>
+        <v>108315</v>
       </c>
       <c r="H23" s="11">
-        <v>47505</v>
-      </c>
-      <c r="I23" s="11">
-        <v>48278</v>
-      </c>
-      <c r="J23" s="11">
-        <v>86602</v>
-      </c>
-      <c r="K23" s="11">
-        <v>61806</v>
-      </c>
-      <c r="L23" s="11">
-        <v>108315</v>
-      </c>
-      <c r="M23" s="11">
         <v>109242</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="M24" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
-        <v>12303</v>
+        <v>26111</v>
       </c>
       <c r="E25" s="11">
-        <v>15171</v>
+        <v>30068</v>
       </c>
       <c r="F25" s="11">
-        <v>35044</v>
+        <v>31101</v>
       </c>
       <c r="G25" s="11">
-        <v>13549</v>
+        <v>19854</v>
       </c>
       <c r="H25" s="11">
-        <v>29423</v>
-      </c>
-      <c r="I25" s="11">
-        <v>26111</v>
-      </c>
-      <c r="J25" s="11">
-        <v>30068</v>
-      </c>
-      <c r="K25" s="11">
-        <v>31101</v>
-      </c>
-      <c r="L25" s="11">
-        <v>19854</v>
-      </c>
-      <c r="M25" s="11">
         <v>20772</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>1726856</v>
+        <v>4932498</v>
       </c>
       <c r="E26" s="17">
-        <v>2039594</v>
+        <v>5840370</v>
       </c>
       <c r="F26" s="17">
-        <v>3129180</v>
+        <v>6227846</v>
       </c>
       <c r="G26" s="17">
-        <v>3511705</v>
+        <v>7040018</v>
       </c>
       <c r="H26" s="17">
-        <v>4421255</v>
-      </c>
-      <c r="I26" s="17">
-        <v>4932498</v>
-      </c>
-      <c r="J26" s="17">
-        <v>5840370</v>
-      </c>
-      <c r="K26" s="17">
-        <v>6227846</v>
-      </c>
-      <c r="L26" s="17">
-        <v>7040018</v>
-      </c>
-      <c r="M26" s="17">
         <v>8174960</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>5707183</v>
+        <v>17424017</v>
       </c>
       <c r="E27" s="19">
-        <v>8395087</v>
+        <v>17227303</v>
       </c>
       <c r="F27" s="19">
-        <v>12400813</v>
+        <v>24626615</v>
       </c>
       <c r="G27" s="19">
-        <v>12745733</v>
+        <v>20007094</v>
       </c>
       <c r="H27" s="19">
-        <v>15694883</v>
-      </c>
-      <c r="I27" s="19">
-        <v>17424017</v>
-      </c>
-      <c r="J27" s="19">
-        <v>17227303</v>
-      </c>
-      <c r="K27" s="19">
-        <v>24626615</v>
-      </c>
-      <c r="L27" s="19">
-        <v>20007094</v>
-      </c>
-      <c r="M27" s="19">
         <v>20811988</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1537,267 +1190,157 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>925811</v>
+        <v>2030897</v>
       </c>
       <c r="E29" s="15">
-        <v>1527490</v>
+        <v>1960863</v>
       </c>
       <c r="F29" s="15">
-        <v>2396182</v>
+        <v>5677378</v>
       </c>
       <c r="G29" s="15">
-        <v>1045744</v>
+        <v>3775500</v>
       </c>
       <c r="H29" s="15">
-        <v>1888235</v>
-      </c>
-      <c r="I29" s="15">
-        <v>2030897</v>
-      </c>
-      <c r="J29" s="15">
-        <v>1960863</v>
-      </c>
-      <c r="K29" s="15">
-        <v>5677378</v>
-      </c>
-      <c r="L29" s="15">
-        <v>3775500</v>
-      </c>
-      <c r="M29" s="15">
         <v>3588194</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>176601</v>
+        <v>642804</v>
       </c>
       <c r="E31" s="15">
-        <v>416085</v>
+        <v>844676</v>
       </c>
       <c r="F31" s="15">
-        <v>222616</v>
+        <v>1011449</v>
       </c>
       <c r="G31" s="15">
-        <v>301655</v>
+        <v>906515</v>
       </c>
       <c r="H31" s="15">
-        <v>603111</v>
-      </c>
-      <c r="I31" s="15">
-        <v>642804</v>
-      </c>
-      <c r="J31" s="15">
-        <v>844676</v>
-      </c>
-      <c r="K31" s="15">
-        <v>1011449</v>
-      </c>
-      <c r="L31" s="15">
-        <v>906515</v>
-      </c>
-      <c r="M31" s="15">
         <v>1314134</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>156093</v>
+        <v>1281027</v>
       </c>
       <c r="E32" s="11">
-        <v>300113</v>
+        <v>957214</v>
       </c>
       <c r="F32" s="11">
-        <v>822476</v>
+        <v>1165441</v>
       </c>
       <c r="G32" s="11">
-        <v>766180</v>
+        <v>400059</v>
       </c>
       <c r="H32" s="11">
-        <v>1154006</v>
-      </c>
-      <c r="I32" s="11">
-        <v>1281027</v>
-      </c>
-      <c r="J32" s="11">
-        <v>957214</v>
-      </c>
-      <c r="K32" s="11">
-        <v>1165441</v>
-      </c>
-      <c r="L32" s="11">
-        <v>400059</v>
-      </c>
-      <c r="M32" s="11">
         <v>488203</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
-        <v>150959</v>
+        <v>1203162</v>
       </c>
       <c r="E33" s="15">
-        <v>132460</v>
+        <v>73647</v>
       </c>
       <c r="F33" s="15">
-        <v>130134</v>
+        <v>1564409</v>
       </c>
       <c r="G33" s="15">
-        <v>1209407</v>
+        <v>1576672</v>
       </c>
       <c r="H33" s="15">
-        <v>1207144</v>
-      </c>
-      <c r="I33" s="15">
-        <v>1203162</v>
-      </c>
-      <c r="J33" s="15">
-        <v>73647</v>
-      </c>
-      <c r="K33" s="15">
-        <v>1564409</v>
-      </c>
-      <c r="L33" s="15">
-        <v>1576672</v>
-      </c>
-      <c r="M33" s="15">
         <v>1559081</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>1500466</v>
+        <v>5794326</v>
       </c>
       <c r="E34" s="11">
-        <v>2020288</v>
+        <v>5780330</v>
       </c>
       <c r="F34" s="11">
-        <v>3830830</v>
+        <v>7839005</v>
       </c>
       <c r="G34" s="11">
-        <v>4537441</v>
+        <v>4714531</v>
       </c>
       <c r="H34" s="11">
-        <v>4752134</v>
-      </c>
-      <c r="I34" s="11">
-        <v>5794326</v>
-      </c>
-      <c r="J34" s="11">
-        <v>5780330</v>
-      </c>
-      <c r="K34" s="11">
-        <v>7839005</v>
-      </c>
-      <c r="L34" s="11">
-        <v>4714531</v>
-      </c>
-      <c r="M34" s="11">
         <v>4671268</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
-        <v>155128</v>
+        <v>729597</v>
       </c>
       <c r="E35" s="15">
-        <v>299803</v>
+        <v>721236</v>
       </c>
       <c r="F35" s="15">
-        <v>1002568</v>
+        <v>382684</v>
       </c>
       <c r="G35" s="15">
-        <v>81632</v>
+        <v>515112</v>
       </c>
       <c r="H35" s="15">
-        <v>881699</v>
-      </c>
-      <c r="I35" s="15">
-        <v>729597</v>
-      </c>
-      <c r="J35" s="15">
-        <v>721236</v>
-      </c>
-      <c r="K35" s="15">
-        <v>382684</v>
-      </c>
-      <c r="L35" s="15">
-        <v>515112</v>
-      </c>
-      <c r="M35" s="15">
         <v>574209</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
@@ -1815,61 +1358,31 @@
       <c r="H36" s="11">
         <v>0</v>
       </c>
-      <c r="I36" s="11">
-        <v>0</v>
-      </c>
-      <c r="J36" s="11">
-        <v>0</v>
-      </c>
-      <c r="K36" s="11">
-        <v>0</v>
-      </c>
-      <c r="L36" s="11">
-        <v>0</v>
-      </c>
-      <c r="M36" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>3065058</v>
+        <v>11681813</v>
       </c>
       <c r="E37" s="17">
-        <v>4696239</v>
+        <v>10337966</v>
       </c>
       <c r="F37" s="17">
-        <v>8404806</v>
+        <v>17640366</v>
       </c>
       <c r="G37" s="17">
-        <v>7942059</v>
+        <v>11888389</v>
       </c>
       <c r="H37" s="17">
-        <v>10486329</v>
-      </c>
-      <c r="I37" s="17">
-        <v>11681813</v>
-      </c>
-      <c r="J37" s="17">
-        <v>10337966</v>
-      </c>
-      <c r="K37" s="17">
-        <v>17640366</v>
-      </c>
-      <c r="L37" s="17">
-        <v>11888389</v>
-      </c>
-      <c r="M37" s="17">
         <v>12195089</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
@@ -1882,210 +1395,120 @@
         <v>0</v>
       </c>
       <c r="G38" s="11">
-        <v>59150</v>
+        <v>9804</v>
       </c>
       <c r="H38" s="11">
-        <v>0</v>
-      </c>
-      <c r="I38" s="11">
-        <v>0</v>
-      </c>
-      <c r="J38" s="11">
-        <v>0</v>
-      </c>
-      <c r="K38" s="11">
-        <v>0</v>
-      </c>
-      <c r="L38" s="11">
         <v>9804</v>
       </c>
-      <c r="M38" s="11">
-        <v>9804</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="K39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="M39" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>0</v>
+        <v>8910</v>
       </c>
       <c r="E40" s="11">
-        <v>0</v>
+        <v>45208</v>
       </c>
       <c r="F40" s="11">
-        <v>0</v>
+        <v>30138</v>
       </c>
       <c r="G40" s="11">
         <v>0</v>
       </c>
       <c r="H40" s="11">
-        <v>30138</v>
-      </c>
-      <c r="I40" s="11">
-        <v>8910</v>
-      </c>
-      <c r="J40" s="11">
-        <v>45208</v>
-      </c>
-      <c r="K40" s="11">
-        <v>30138</v>
-      </c>
-      <c r="L40" s="11">
-        <v>0</v>
-      </c>
-      <c r="M40" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>369737</v>
+        <v>488957</v>
       </c>
       <c r="E41" s="15">
-        <v>378193</v>
+        <v>527673</v>
       </c>
       <c r="F41" s="15">
-        <v>372637</v>
+        <v>511172</v>
       </c>
       <c r="G41" s="15">
-        <v>369709</v>
+        <v>719876</v>
       </c>
       <c r="H41" s="15">
-        <v>486048</v>
-      </c>
-      <c r="I41" s="15">
-        <v>488957</v>
-      </c>
-      <c r="J41" s="15">
-        <v>527673</v>
-      </c>
-      <c r="K41" s="15">
-        <v>511172</v>
-      </c>
-      <c r="L41" s="15">
-        <v>719876</v>
-      </c>
-      <c r="M41" s="15">
         <v>799774</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>369737</v>
+        <v>497867</v>
       </c>
       <c r="E42" s="19">
-        <v>378193</v>
+        <v>572881</v>
       </c>
       <c r="F42" s="19">
-        <v>372637</v>
+        <v>541310</v>
       </c>
       <c r="G42" s="19">
-        <v>428859</v>
+        <v>729680</v>
       </c>
       <c r="H42" s="19">
-        <v>516186</v>
-      </c>
-      <c r="I42" s="19">
-        <v>497867</v>
-      </c>
-      <c r="J42" s="19">
-        <v>572881</v>
-      </c>
-      <c r="K42" s="19">
-        <v>541310</v>
-      </c>
-      <c r="L42" s="19">
-        <v>729680</v>
-      </c>
-      <c r="M42" s="19">
         <v>809578</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>3434795</v>
+        <v>12179680</v>
       </c>
       <c r="E43" s="17">
-        <v>5074432</v>
+        <v>10910847</v>
       </c>
       <c r="F43" s="17">
-        <v>8777443</v>
+        <v>18181676</v>
       </c>
       <c r="G43" s="17">
-        <v>8370918</v>
+        <v>12618069</v>
       </c>
       <c r="H43" s="17">
-        <v>11002515</v>
-      </c>
-      <c r="I43" s="17">
-        <v>12179680</v>
-      </c>
-      <c r="J43" s="17">
-        <v>10910847</v>
-      </c>
-      <c r="K43" s="17">
-        <v>18181676</v>
-      </c>
-      <c r="L43" s="17">
-        <v>12618069</v>
-      </c>
-      <c r="M43" s="17">
         <v>13004667</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -2093,51 +1516,31 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
-        <v>700000</v>
+        <v>2180000</v>
       </c>
       <c r="E45" s="15">
-        <v>700000</v>
+        <v>2180000</v>
       </c>
       <c r="F45" s="15">
         <v>2180000</v>
       </c>
       <c r="G45" s="15">
-        <v>2180000</v>
+        <v>4360000</v>
       </c>
       <c r="H45" s="15">
-        <v>2180000</v>
-      </c>
-      <c r="I45" s="15">
-        <v>2180000</v>
-      </c>
-      <c r="J45" s="15">
-        <v>2180000</v>
-      </c>
-      <c r="K45" s="15">
-        <v>2180000</v>
-      </c>
-      <c r="L45" s="15">
         <v>4360000</v>
       </c>
-      <c r="M45" s="15">
-        <v>4360000</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -2155,169 +1558,94 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-      <c r="I46" s="11">
-        <v>0</v>
-      </c>
-      <c r="J46" s="11">
-        <v>0</v>
-      </c>
-      <c r="K46" s="11">
-        <v>0</v>
-      </c>
-      <c r="L46" s="11">
-        <v>0</v>
-      </c>
-      <c r="M46" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
-        <v>1045014</v>
+        <v>0</v>
       </c>
       <c r="E47" s="15">
-        <v>1363865</v>
+        <v>962986</v>
       </c>
       <c r="F47" s="15">
-        <v>0</v>
+        <v>2090389</v>
       </c>
       <c r="G47" s="15">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="H47" s="15">
-        <v>0</v>
-      </c>
-      <c r="I47" s="15">
-        <v>0</v>
-      </c>
-      <c r="J47" s="15">
-        <v>962986</v>
-      </c>
-      <c r="K47" s="15">
-        <v>2090389</v>
-      </c>
-      <c r="L47" s="15">
         <v>1000000</v>
       </c>
-      <c r="M47" s="15">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
         <v>0</v>
       </c>
       <c r="E48" s="11">
-        <v>0</v>
+        <v>-130408</v>
       </c>
       <c r="F48" s="11">
         <v>0</v>
       </c>
       <c r="G48" s="11">
-        <v>0</v>
+        <v>-126667</v>
       </c>
       <c r="H48" s="11">
-        <v>0</v>
-      </c>
-      <c r="I48" s="11">
-        <v>0</v>
-      </c>
-      <c r="J48" s="11">
-        <v>-130408</v>
-      </c>
-      <c r="K48" s="11">
-        <v>0</v>
-      </c>
-      <c r="L48" s="11">
         <v>-126667</v>
       </c>
-      <c r="M48" s="11">
-        <v>-126667</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
         <v>0</v>
       </c>
       <c r="E49" s="15">
-        <v>0</v>
+        <v>40957</v>
       </c>
       <c r="F49" s="15">
         <v>0</v>
       </c>
       <c r="G49" s="15">
-        <v>0</v>
+        <v>42542</v>
       </c>
       <c r="H49" s="15">
-        <v>0</v>
-      </c>
-      <c r="I49" s="15">
-        <v>0</v>
-      </c>
-      <c r="J49" s="15">
-        <v>40957</v>
-      </c>
-      <c r="K49" s="15">
-        <v>0</v>
-      </c>
-      <c r="L49" s="15">
         <v>42542</v>
       </c>
-      <c r="M49" s="15">
-        <v>42542</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>70000</v>
+        <v>303246</v>
       </c>
       <c r="E50" s="11">
-        <v>70000</v>
+        <v>321312</v>
       </c>
       <c r="F50" s="11">
-        <v>175834</v>
+        <v>343193</v>
       </c>
       <c r="G50" s="11">
-        <v>219637</v>
+        <v>340123</v>
       </c>
       <c r="H50" s="11">
-        <v>275647</v>
-      </c>
-      <c r="I50" s="11">
-        <v>303246</v>
-      </c>
-      <c r="J50" s="11">
-        <v>321312</v>
-      </c>
-      <c r="K50" s="11">
-        <v>343193</v>
-      </c>
-      <c r="L50" s="11">
-        <v>340123</v>
-      </c>
-      <c r="M50" s="11">
         <v>361043</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
@@ -2335,61 +1663,31 @@
       <c r="H51" s="15">
         <v>25000</v>
       </c>
-      <c r="I51" s="15">
-        <v>25000</v>
-      </c>
-      <c r="J51" s="15">
-        <v>25000</v>
-      </c>
-      <c r="K51" s="15">
-        <v>25000</v>
-      </c>
-      <c r="L51" s="15">
-        <v>25000</v>
-      </c>
-      <c r="M51" s="15">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M52" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
@@ -2407,61 +1705,31 @@
       <c r="H53" s="15">
         <v>0</v>
       </c>
-      <c r="I53" s="15">
-        <v>0</v>
-      </c>
-      <c r="J53" s="15">
-        <v>0</v>
-      </c>
-      <c r="K53" s="15">
-        <v>0</v>
-      </c>
-      <c r="L53" s="15">
-        <v>0</v>
-      </c>
-      <c r="M53" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M54" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
@@ -2479,131 +1747,71 @@
       <c r="H55" s="15">
         <v>0</v>
       </c>
-      <c r="I55" s="15">
-        <v>0</v>
-      </c>
-      <c r="J55" s="15">
-        <v>0</v>
-      </c>
-      <c r="K55" s="15">
-        <v>0</v>
-      </c>
-      <c r="L55" s="15">
-        <v>0</v>
-      </c>
-      <c r="M55" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>432374</v>
+        <v>2736091</v>
       </c>
       <c r="E56" s="11">
-        <v>1161790</v>
+        <v>2916609</v>
       </c>
       <c r="F56" s="11">
-        <v>1242536</v>
+        <v>1806357</v>
       </c>
       <c r="G56" s="11">
-        <v>1950178</v>
+        <v>1748027</v>
       </c>
       <c r="H56" s="11">
-        <v>2211721</v>
-      </c>
-      <c r="I56" s="11">
-        <v>2736091</v>
-      </c>
-      <c r="J56" s="11">
-        <v>2916609</v>
-      </c>
-      <c r="K56" s="11">
-        <v>1806357</v>
-      </c>
-      <c r="L56" s="11">
-        <v>1748027</v>
-      </c>
-      <c r="M56" s="11">
         <v>2145403</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>2272388</v>
+        <v>5244337</v>
       </c>
       <c r="E57" s="17">
-        <v>3320655</v>
+        <v>6316456</v>
       </c>
       <c r="F57" s="17">
-        <v>3623370</v>
+        <v>6444939</v>
       </c>
       <c r="G57" s="17">
-        <v>4374815</v>
+        <v>7389025</v>
       </c>
       <c r="H57" s="17">
-        <v>4692368</v>
-      </c>
-      <c r="I57" s="17">
-        <v>5244337</v>
-      </c>
-      <c r="J57" s="17">
-        <v>6316456</v>
-      </c>
-      <c r="K57" s="17">
-        <v>6444939</v>
-      </c>
-      <c r="L57" s="17">
-        <v>7389025</v>
-      </c>
-      <c r="M57" s="17">
         <v>7807321</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>5707183</v>
+        <v>17424017</v>
       </c>
       <c r="E58" s="19">
-        <v>8395087</v>
+        <v>17227303</v>
       </c>
       <c r="F58" s="19">
-        <v>12400813</v>
+        <v>24626615</v>
       </c>
       <c r="G58" s="19">
-        <v>12745733</v>
+        <v>20007094</v>
       </c>
       <c r="H58" s="19">
-        <v>15694883</v>
-      </c>
-      <c r="I58" s="19">
-        <v>17424017</v>
-      </c>
-      <c r="J58" s="19">
-        <v>17227303</v>
-      </c>
-      <c r="K58" s="19">
-        <v>24626615</v>
-      </c>
-      <c r="L58" s="19">
-        <v>20007094</v>
-      </c>
-      <c r="M58" s="19">
         <v>20811988</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2611,11 +1819,6 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/lastic/pekavir/balancesheet/quarterly.xlsx
+++ b/database/industries/lastic/pekavir/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pekavir\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekavir\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEB6EB6-E2EC-474C-B702-34AFA95A377B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F423DE9-F548-4CB9-81FB-C5B07DB11E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,18 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/03</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/06</t>
   </si>
   <si>
@@ -52,13 +64,28 @@
     <t>فصل سوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1399-07-27</t>
+  </si>
+  <si>
+    <t>1400-12-02 (9)</t>
+  </si>
+  <si>
+    <t>1400-01-29</t>
+  </si>
+  <si>
+    <t>1400-05-28 (4)</t>
+  </si>
+  <si>
     <t>1400-07-28</t>
   </si>
   <si>
-    <t>1401-07-30 (6)</t>
+    <t>1401-11-30 (7)</t>
   </si>
   <si>
     <t>1401-01-30</t>
@@ -68,6 +95,9 @@
   </si>
   <si>
     <t>1401-07-30</t>
+  </si>
+  <si>
+    <t>1401-11-30</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -698,20 +728,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H59"/>
+  <dimension ref="B1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
     <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -719,8 +752,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -730,8 +768,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -741,8 +784,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -750,8 +798,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -761,8 +814,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -772,8 +830,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -781,8 +844,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -802,29 +870,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -832,10 +930,15 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -843,115 +946,195 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>938590</v>
+      </c>
+      <c r="E12" s="15">
+        <v>2349738</v>
+      </c>
+      <c r="F12" s="15">
+        <v>575854</v>
+      </c>
+      <c r="G12" s="15">
+        <v>767516</v>
+      </c>
+      <c r="H12" s="15">
         <v>581910</v>
       </c>
-      <c r="E12" s="15">
+      <c r="I12" s="15">
         <v>581417</v>
       </c>
-      <c r="F12" s="15">
+      <c r="J12" s="15">
         <v>648217</v>
       </c>
-      <c r="G12" s="15">
+      <c r="K12" s="15">
         <v>1063322</v>
       </c>
-      <c r="H12" s="15">
+      <c r="L12" s="15">
         <v>196279</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M12" s="15">
+        <v>513723</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
+        <v>107500</v>
+      </c>
+      <c r="E13" s="11">
         <v>58000</v>
       </c>
-      <c r="E13" s="11">
-        <v>0</v>
-      </c>
       <c r="F13" s="11">
+        <v>58000</v>
+      </c>
+      <c r="G13" s="11">
+        <v>58000</v>
+      </c>
+      <c r="H13" s="11">
+        <v>58000</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
         <v>161000</v>
       </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11">
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
         <v>4998</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
+        <v>1676993</v>
+      </c>
+      <c r="E14" s="15">
+        <v>2420728</v>
+      </c>
+      <c r="F14" s="15">
+        <v>2633811</v>
+      </c>
+      <c r="G14" s="15">
+        <v>5307261</v>
+      </c>
+      <c r="H14" s="15">
         <v>5900624</v>
       </c>
-      <c r="E14" s="15">
+      <c r="I14" s="15">
         <v>5366986</v>
       </c>
-      <c r="F14" s="15">
+      <c r="J14" s="15">
         <v>7347795</v>
       </c>
-      <c r="G14" s="15">
+      <c r="K14" s="15">
         <v>5663775</v>
       </c>
-      <c r="H14" s="15">
+      <c r="L14" s="15">
         <v>5950610</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M14" s="15">
+        <v>6449375</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
+        <v>1331635</v>
+      </c>
+      <c r="E15" s="11">
+        <v>2136589</v>
+      </c>
+      <c r="F15" s="11">
+        <v>3191472</v>
+      </c>
+      <c r="G15" s="11">
+        <v>3730432</v>
+      </c>
+      <c r="H15" s="11">
         <v>4367693</v>
       </c>
-      <c r="E15" s="11">
+      <c r="I15" s="11">
         <v>3309072</v>
       </c>
-      <c r="F15" s="11">
+      <c r="J15" s="11">
         <v>3797879</v>
       </c>
-      <c r="G15" s="11">
+      <c r="K15" s="11">
         <v>3937220</v>
       </c>
-      <c r="H15" s="11">
+      <c r="L15" s="11">
         <v>4180563</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M15" s="11">
+        <v>4703571</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
+        <v>2300775</v>
+      </c>
+      <c r="E16" s="15">
+        <v>2306578</v>
+      </c>
+      <c r="F16" s="15">
+        <v>2774891</v>
+      </c>
+      <c r="G16" s="15">
+        <v>1410419</v>
+      </c>
+      <c r="H16" s="15">
         <v>1583292</v>
       </c>
-      <c r="E16" s="15">
-        <v>2129458</v>
-      </c>
-      <c r="F16" s="15">
+      <c r="I16" s="15">
+        <v>1874222</v>
+      </c>
+      <c r="J16" s="15">
         <v>6443878</v>
       </c>
-      <c r="G16" s="15">
+      <c r="K16" s="15">
         <v>2301659</v>
       </c>
-      <c r="H16" s="15">
+      <c r="L16" s="15">
         <v>2303478</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M16" s="15">
+        <v>1242773</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
@@ -964,78 +1147,138 @@
         <v>0</v>
       </c>
       <c r="G17" s="11">
+        <v>0</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
         <v>1100</v>
       </c>
-      <c r="H17" s="11">
+      <c r="L17" s="11">
         <v>1100</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M17" s="11">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
+        <v>6355493</v>
+      </c>
+      <c r="E18" s="17">
+        <v>9271633</v>
+      </c>
+      <c r="F18" s="17">
+        <v>9234028</v>
+      </c>
+      <c r="G18" s="17">
+        <v>11273628</v>
+      </c>
+      <c r="H18" s="17">
         <v>12491519</v>
       </c>
-      <c r="E18" s="17">
-        <v>11386933</v>
-      </c>
-      <c r="F18" s="17">
+      <c r="I18" s="17">
+        <v>11131697</v>
+      </c>
+      <c r="J18" s="17">
         <v>18398769</v>
       </c>
-      <c r="G18" s="17">
+      <c r="K18" s="17">
         <v>12967076</v>
       </c>
-      <c r="H18" s="17">
+      <c r="L18" s="17">
         <v>12637028</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M18" s="17">
+        <v>12910542</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
+        <v>1544</v>
+      </c>
+      <c r="E19" s="11">
+        <v>1091</v>
+      </c>
+      <c r="F19" s="11">
+        <v>1239</v>
+      </c>
+      <c r="G19" s="11">
+        <v>1504</v>
+      </c>
+      <c r="H19" s="11">
         <v>2265</v>
       </c>
-      <c r="E19" s="11">
+      <c r="I19" s="11">
         <v>2825</v>
       </c>
-      <c r="F19" s="11">
+      <c r="J19" s="11">
         <v>3255</v>
       </c>
-      <c r="G19" s="11">
+      <c r="K19" s="11">
         <v>4974</v>
       </c>
-      <c r="H19" s="11">
+      <c r="L19" s="11">
         <v>12812</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M19" s="11">
+        <v>13884</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
+        <v>40305</v>
+      </c>
+      <c r="E20" s="15">
+        <v>40414</v>
+      </c>
+      <c r="F20" s="15">
+        <v>40414</v>
+      </c>
+      <c r="G20" s="15">
+        <v>76875</v>
+      </c>
+      <c r="H20" s="15">
         <v>119625</v>
       </c>
-      <c r="E20" s="15">
+      <c r="I20" s="15">
         <v>86664</v>
       </c>
-      <c r="F20" s="15">
+      <c r="J20" s="15">
         <v>124625</v>
       </c>
-      <c r="G20" s="15">
+      <c r="K20" s="15">
         <v>88164</v>
       </c>
-      <c r="H20" s="15">
+      <c r="L20" s="15">
         <v>53164</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M20" s="15">
+        <v>88163</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1053,136 +1296,241 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
+        <v>1974950</v>
+      </c>
+      <c r="E22" s="15">
+        <v>3044886</v>
+      </c>
+      <c r="F22" s="15">
+        <v>3448150</v>
+      </c>
+      <c r="G22" s="15">
+        <v>4265948</v>
+      </c>
+      <c r="H22" s="15">
         <v>4736219</v>
       </c>
-      <c r="E22" s="15">
-        <v>5634211</v>
-      </c>
-      <c r="F22" s="15">
+      <c r="I22" s="15">
+        <v>5717706</v>
+      </c>
+      <c r="J22" s="15">
         <v>6007059</v>
       </c>
-      <c r="G22" s="15">
+      <c r="K22" s="15">
         <v>6818711</v>
       </c>
-      <c r="H22" s="15">
+      <c r="L22" s="15">
         <v>7978970</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M22" s="15">
+        <v>9210668</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
+        <v>7624</v>
+      </c>
+      <c r="E23" s="11">
+        <v>7745</v>
+      </c>
+      <c r="F23" s="11">
+        <v>8353</v>
+      </c>
+      <c r="G23" s="11">
+        <v>47505</v>
+      </c>
+      <c r="H23" s="11">
         <v>48278</v>
       </c>
-      <c r="E23" s="11">
+      <c r="I23" s="11">
         <v>86602</v>
       </c>
-      <c r="F23" s="11">
+      <c r="J23" s="11">
         <v>61806</v>
       </c>
-      <c r="G23" s="11">
+      <c r="K23" s="11">
         <v>108315</v>
       </c>
-      <c r="H23" s="11">
+      <c r="L23" s="11">
         <v>109242</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M23" s="11">
+        <v>139769</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
+        <v>15171</v>
+      </c>
+      <c r="E25" s="11">
+        <v>35044</v>
+      </c>
+      <c r="F25" s="11">
+        <v>13549</v>
+      </c>
+      <c r="G25" s="11">
+        <v>29423</v>
+      </c>
+      <c r="H25" s="11">
         <v>26111</v>
       </c>
-      <c r="E25" s="11">
+      <c r="I25" s="11">
         <v>30068</v>
       </c>
-      <c r="F25" s="11">
+      <c r="J25" s="11">
         <v>31101</v>
       </c>
-      <c r="G25" s="11">
+      <c r="K25" s="11">
         <v>19854</v>
       </c>
-      <c r="H25" s="11">
+      <c r="L25" s="11">
         <v>20772</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M25" s="11">
+        <v>25511</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
+        <v>2039594</v>
+      </c>
+      <c r="E26" s="17">
+        <v>3129180</v>
+      </c>
+      <c r="F26" s="17">
+        <v>3511705</v>
+      </c>
+      <c r="G26" s="17">
+        <v>4421255</v>
+      </c>
+      <c r="H26" s="17">
         <v>4932498</v>
       </c>
-      <c r="E26" s="17">
-        <v>5840370</v>
-      </c>
-      <c r="F26" s="17">
+      <c r="I26" s="17">
+        <v>5923865</v>
+      </c>
+      <c r="J26" s="17">
         <v>6227846</v>
       </c>
-      <c r="G26" s="17">
+      <c r="K26" s="17">
         <v>7040018</v>
       </c>
-      <c r="H26" s="17">
+      <c r="L26" s="17">
         <v>8174960</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M26" s="17">
+        <v>9477995</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
+        <v>8395087</v>
+      </c>
+      <c r="E27" s="19">
+        <v>12400813</v>
+      </c>
+      <c r="F27" s="19">
+        <v>12745733</v>
+      </c>
+      <c r="G27" s="19">
+        <v>15694883</v>
+      </c>
+      <c r="H27" s="19">
         <v>17424017</v>
       </c>
-      <c r="E27" s="19">
-        <v>17227303</v>
-      </c>
-      <c r="F27" s="19">
+      <c r="I27" s="19">
+        <v>17055562</v>
+      </c>
+      <c r="J27" s="19">
         <v>24626615</v>
       </c>
-      <c r="G27" s="19">
+      <c r="K27" s="19">
         <v>20007094</v>
       </c>
-      <c r="H27" s="19">
+      <c r="L27" s="19">
         <v>20811988</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M27" s="19">
+        <v>22388537</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1190,157 +1538,267 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
+        <v>1527490</v>
+      </c>
+      <c r="E29" s="15">
+        <v>2396182</v>
+      </c>
+      <c r="F29" s="15">
+        <v>1045744</v>
+      </c>
+      <c r="G29" s="15">
+        <v>1888235</v>
+      </c>
+      <c r="H29" s="15">
         <v>2030897</v>
       </c>
-      <c r="E29" s="15">
-        <v>1960863</v>
-      </c>
-      <c r="F29" s="15">
+      <c r="I29" s="15">
+        <v>1439766</v>
+      </c>
+      <c r="J29" s="15">
         <v>5677378</v>
       </c>
-      <c r="G29" s="15">
+      <c r="K29" s="15">
         <v>3775500</v>
       </c>
-      <c r="H29" s="15">
+      <c r="L29" s="15">
         <v>3588194</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M29" s="15">
+        <v>3443655</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
+        <v>416085</v>
+      </c>
+      <c r="E31" s="15">
+        <v>222616</v>
+      </c>
+      <c r="F31" s="15">
+        <v>301655</v>
+      </c>
+      <c r="G31" s="15">
+        <v>603111</v>
+      </c>
+      <c r="H31" s="15">
         <v>642804</v>
       </c>
-      <c r="E31" s="15">
+      <c r="I31" s="15">
         <v>844676</v>
       </c>
-      <c r="F31" s="15">
+      <c r="J31" s="15">
         <v>1011449</v>
       </c>
-      <c r="G31" s="15">
+      <c r="K31" s="15">
         <v>906515</v>
       </c>
-      <c r="H31" s="15">
+      <c r="L31" s="15">
         <v>1314134</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M31" s="15">
+        <v>666120</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
+        <v>300113</v>
+      </c>
+      <c r="E32" s="11">
+        <v>822476</v>
+      </c>
+      <c r="F32" s="11">
+        <v>766180</v>
+      </c>
+      <c r="G32" s="11">
+        <v>1154006</v>
+      </c>
+      <c r="H32" s="11">
         <v>1281027</v>
       </c>
-      <c r="E32" s="11">
+      <c r="I32" s="11">
         <v>957214</v>
       </c>
-      <c r="F32" s="11">
+      <c r="J32" s="11">
         <v>1165441</v>
       </c>
-      <c r="G32" s="11">
+      <c r="K32" s="11">
         <v>400059</v>
       </c>
-      <c r="H32" s="11">
+      <c r="L32" s="11">
         <v>488203</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M32" s="11">
+        <v>771179</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
+        <v>132460</v>
+      </c>
+      <c r="E33" s="15">
+        <v>130134</v>
+      </c>
+      <c r="F33" s="15">
+        <v>1209407</v>
+      </c>
+      <c r="G33" s="15">
+        <v>1207144</v>
+      </c>
+      <c r="H33" s="15">
         <v>1203162</v>
       </c>
-      <c r="E33" s="15">
+      <c r="I33" s="15">
         <v>73647</v>
       </c>
-      <c r="F33" s="15">
+      <c r="J33" s="15">
         <v>1564409</v>
       </c>
-      <c r="G33" s="15">
+      <c r="K33" s="15">
         <v>1576672</v>
       </c>
-      <c r="H33" s="15">
+      <c r="L33" s="15">
         <v>1559081</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M33" s="15">
+        <v>1141188</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
+        <v>2020288</v>
+      </c>
+      <c r="E34" s="11">
+        <v>3830830</v>
+      </c>
+      <c r="F34" s="11">
+        <v>4537441</v>
+      </c>
+      <c r="G34" s="11">
+        <v>4752134</v>
+      </c>
+      <c r="H34" s="11">
         <v>5794326</v>
       </c>
-      <c r="E34" s="11">
+      <c r="I34" s="11">
         <v>5780330</v>
       </c>
-      <c r="F34" s="11">
+      <c r="J34" s="11">
         <v>7839005</v>
       </c>
-      <c r="G34" s="11">
+      <c r="K34" s="11">
         <v>4714531</v>
       </c>
-      <c r="H34" s="11">
+      <c r="L34" s="11">
         <v>4671268</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M34" s="11">
+        <v>5370951</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
+        <v>299803</v>
+      </c>
+      <c r="E35" s="15">
+        <v>1002568</v>
+      </c>
+      <c r="F35" s="15">
+        <v>81632</v>
+      </c>
+      <c r="G35" s="15">
+        <v>881699</v>
+      </c>
+      <c r="H35" s="15">
         <v>729597</v>
       </c>
-      <c r="E35" s="15">
-        <v>721236</v>
-      </c>
-      <c r="F35" s="15">
+      <c r="I35" s="15">
+        <v>1070268</v>
+      </c>
+      <c r="J35" s="15">
         <v>382684</v>
       </c>
-      <c r="G35" s="15">
+      <c r="K35" s="15">
         <v>515112</v>
       </c>
-      <c r="H35" s="15">
+      <c r="L35" s="15">
         <v>574209</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M35" s="15">
+        <v>835642</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
@@ -1358,31 +1816,61 @@
       <c r="H36" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
+        <v>4696239</v>
+      </c>
+      <c r="E37" s="17">
+        <v>8404806</v>
+      </c>
+      <c r="F37" s="17">
+        <v>7942059</v>
+      </c>
+      <c r="G37" s="17">
+        <v>10486329</v>
+      </c>
+      <c r="H37" s="17">
         <v>11681813</v>
       </c>
-      <c r="E37" s="17">
-        <v>10337966</v>
-      </c>
-      <c r="F37" s="17">
+      <c r="I37" s="17">
+        <v>10165901</v>
+      </c>
+      <c r="J37" s="17">
         <v>17640366</v>
       </c>
-      <c r="G37" s="17">
+      <c r="K37" s="17">
         <v>11888389</v>
       </c>
-      <c r="H37" s="17">
+      <c r="L37" s="17">
         <v>12195089</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M37" s="17">
+        <v>12228735</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
@@ -1392,123 +1880,213 @@
         <v>0</v>
       </c>
       <c r="F38" s="11">
-        <v>0</v>
+        <v>59150</v>
       </c>
       <c r="G38" s="11">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
         <v>9804</v>
       </c>
-      <c r="H38" s="11">
+      <c r="L38" s="11">
         <v>9804</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M39" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
+        <v>0</v>
+      </c>
+      <c r="E40" s="11">
+        <v>0</v>
+      </c>
+      <c r="F40" s="11">
+        <v>0</v>
+      </c>
+      <c r="G40" s="11">
+        <v>30138</v>
+      </c>
+      <c r="H40" s="11">
         <v>8910</v>
       </c>
-      <c r="E40" s="11">
+      <c r="I40" s="11">
         <v>45208</v>
       </c>
-      <c r="F40" s="11">
+      <c r="J40" s="11">
         <v>30138</v>
       </c>
-      <c r="G40" s="11">
-        <v>0</v>
-      </c>
-      <c r="H40" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="K40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="11">
+        <v>782971</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
+        <v>378193</v>
+      </c>
+      <c r="E41" s="15">
+        <v>372637</v>
+      </c>
+      <c r="F41" s="15">
+        <v>369709</v>
+      </c>
+      <c r="G41" s="15">
+        <v>486048</v>
+      </c>
+      <c r="H41" s="15">
         <v>488957</v>
       </c>
-      <c r="E41" s="15">
+      <c r="I41" s="15">
         <v>527673</v>
       </c>
-      <c r="F41" s="15">
+      <c r="J41" s="15">
         <v>511172</v>
       </c>
-      <c r="G41" s="15">
+      <c r="K41" s="15">
         <v>719876</v>
       </c>
-      <c r="H41" s="15">
+      <c r="L41" s="15">
         <v>799774</v>
       </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M41" s="15">
+        <v>798927</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
+        <v>378193</v>
+      </c>
+      <c r="E42" s="19">
+        <v>372637</v>
+      </c>
+      <c r="F42" s="19">
+        <v>428859</v>
+      </c>
+      <c r="G42" s="19">
+        <v>516186</v>
+      </c>
+      <c r="H42" s="19">
         <v>497867</v>
       </c>
-      <c r="E42" s="19">
+      <c r="I42" s="19">
         <v>572881</v>
       </c>
-      <c r="F42" s="19">
+      <c r="J42" s="19">
         <v>541310</v>
       </c>
-      <c r="G42" s="19">
+      <c r="K42" s="19">
         <v>729680</v>
       </c>
-      <c r="H42" s="19">
+      <c r="L42" s="19">
         <v>809578</v>
       </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M42" s="19">
+        <v>1581898</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
+        <v>5074432</v>
+      </c>
+      <c r="E43" s="17">
+        <v>8777443</v>
+      </c>
+      <c r="F43" s="17">
+        <v>8370918</v>
+      </c>
+      <c r="G43" s="17">
+        <v>11002515</v>
+      </c>
+      <c r="H43" s="17">
         <v>12179680</v>
       </c>
-      <c r="E43" s="17">
-        <v>10910847</v>
-      </c>
-      <c r="F43" s="17">
+      <c r="I43" s="17">
+        <v>10738782</v>
+      </c>
+      <c r="J43" s="17">
         <v>18181676</v>
       </c>
-      <c r="G43" s="17">
+      <c r="K43" s="17">
         <v>12618069</v>
       </c>
-      <c r="H43" s="17">
+      <c r="L43" s="17">
         <v>13004667</v>
       </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M43" s="17">
+        <v>13810633</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -1516,14 +2094,19 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
-        <v>2180000</v>
+        <v>700000</v>
       </c>
       <c r="E45" s="15">
         <v>2180000</v>
@@ -1532,15 +2115,30 @@
         <v>2180000</v>
       </c>
       <c r="G45" s="15">
+        <v>2180000</v>
+      </c>
+      <c r="H45" s="15">
+        <v>2180000</v>
+      </c>
+      <c r="I45" s="15">
+        <v>2180000</v>
+      </c>
+      <c r="J45" s="15">
+        <v>2180000</v>
+      </c>
+      <c r="K45" s="15">
         <v>4360000</v>
       </c>
-      <c r="H45" s="15">
+      <c r="L45" s="15">
         <v>4360000</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M45" s="15">
+        <v>4360000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -1558,94 +2156,169 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
-        <v>0</v>
+        <v>1363865</v>
       </c>
       <c r="E47" s="15">
+        <v>0</v>
+      </c>
+      <c r="F47" s="15">
+        <v>0</v>
+      </c>
+      <c r="G47" s="15">
+        <v>0</v>
+      </c>
+      <c r="H47" s="15">
+        <v>0</v>
+      </c>
+      <c r="I47" s="15">
         <v>962986</v>
       </c>
-      <c r="F47" s="15">
+      <c r="J47" s="15">
         <v>2090389</v>
       </c>
-      <c r="G47" s="15">
+      <c r="K47" s="15">
         <v>1000000</v>
       </c>
-      <c r="H47" s="15">
+      <c r="L47" s="15">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M47" s="15">
+        <v>998380</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
         <v>0</v>
       </c>
       <c r="E48" s="11">
+        <v>0</v>
+      </c>
+      <c r="F48" s="11">
+        <v>0</v>
+      </c>
+      <c r="G48" s="11">
+        <v>0</v>
+      </c>
+      <c r="H48" s="11">
+        <v>0</v>
+      </c>
+      <c r="I48" s="11">
         <v>-130408</v>
       </c>
-      <c r="F48" s="11">
-        <v>0</v>
-      </c>
-      <c r="G48" s="11">
+      <c r="J48" s="11">
+        <v>0</v>
+      </c>
+      <c r="K48" s="11">
         <v>-126667</v>
       </c>
-      <c r="H48" s="11">
+      <c r="L48" s="11">
         <v>-126667</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M48" s="11">
+        <v>-151195</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
         <v>0</v>
       </c>
       <c r="E49" s="15">
+        <v>0</v>
+      </c>
+      <c r="F49" s="15">
+        <v>0</v>
+      </c>
+      <c r="G49" s="15">
+        <v>0</v>
+      </c>
+      <c r="H49" s="15">
+        <v>0</v>
+      </c>
+      <c r="I49" s="15">
         <v>40957</v>
       </c>
-      <c r="F49" s="15">
-        <v>0</v>
-      </c>
-      <c r="G49" s="15">
+      <c r="J49" s="15">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
         <v>42542</v>
       </c>
-      <c r="H49" s="15">
+      <c r="L49" s="15">
         <v>42542</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M49" s="15">
+        <v>32123</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
+        <v>70000</v>
+      </c>
+      <c r="E50" s="11">
+        <v>175834</v>
+      </c>
+      <c r="F50" s="11">
+        <v>219637</v>
+      </c>
+      <c r="G50" s="11">
+        <v>275647</v>
+      </c>
+      <c r="H50" s="11">
         <v>303246</v>
       </c>
-      <c r="E50" s="11">
-        <v>321312</v>
-      </c>
-      <c r="F50" s="11">
+      <c r="I50" s="11">
+        <v>321328</v>
+      </c>
+      <c r="J50" s="11">
         <v>343193</v>
       </c>
-      <c r="G50" s="11">
+      <c r="K50" s="11">
         <v>340123</v>
       </c>
-      <c r="H50" s="11">
+      <c r="L50" s="11">
         <v>361043</v>
       </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M50" s="11">
+        <v>401395</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
@@ -1663,31 +2336,61 @@
       <c r="H51" s="15">
         <v>25000</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I51" s="15">
+        <v>25000</v>
+      </c>
+      <c r="J51" s="15">
+        <v>25000</v>
+      </c>
+      <c r="K51" s="15">
+        <v>25000</v>
+      </c>
+      <c r="L51" s="15">
+        <v>25000</v>
+      </c>
+      <c r="M51" s="15">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
@@ -1705,31 +2408,61 @@
       <c r="H53" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I53" s="15">
+        <v>0</v>
+      </c>
+      <c r="J53" s="15">
+        <v>0</v>
+      </c>
+      <c r="K53" s="15">
+        <v>0</v>
+      </c>
+      <c r="L53" s="15">
+        <v>0</v>
+      </c>
+      <c r="M53" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
@@ -1747,71 +2480,131 @@
       <c r="H55" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I55" s="15">
+        <v>0</v>
+      </c>
+      <c r="J55" s="15">
+        <v>0</v>
+      </c>
+      <c r="K55" s="15">
+        <v>0</v>
+      </c>
+      <c r="L55" s="15">
+        <v>0</v>
+      </c>
+      <c r="M55" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
+        <v>1161790</v>
+      </c>
+      <c r="E56" s="11">
+        <v>1242536</v>
+      </c>
+      <c r="F56" s="11">
+        <v>1950178</v>
+      </c>
+      <c r="G56" s="11">
+        <v>2211721</v>
+      </c>
+      <c r="H56" s="11">
         <v>2736091</v>
       </c>
-      <c r="E56" s="11">
-        <v>2916609</v>
-      </c>
-      <c r="F56" s="11">
+      <c r="I56" s="11">
+        <v>2916917</v>
+      </c>
+      <c r="J56" s="11">
         <v>1806357</v>
       </c>
-      <c r="G56" s="11">
+      <c r="K56" s="11">
         <v>1748027</v>
       </c>
-      <c r="H56" s="11">
+      <c r="L56" s="11">
         <v>2145403</v>
       </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M56" s="11">
+        <v>2912201</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
+        <v>3320655</v>
+      </c>
+      <c r="E57" s="17">
+        <v>3623370</v>
+      </c>
+      <c r="F57" s="17">
+        <v>4374815</v>
+      </c>
+      <c r="G57" s="17">
+        <v>4692368</v>
+      </c>
+      <c r="H57" s="17">
         <v>5244337</v>
       </c>
-      <c r="E57" s="17">
-        <v>6316456</v>
-      </c>
-      <c r="F57" s="17">
+      <c r="I57" s="17">
+        <v>6316780</v>
+      </c>
+      <c r="J57" s="17">
         <v>6444939</v>
       </c>
-      <c r="G57" s="17">
+      <c r="K57" s="17">
         <v>7389025</v>
       </c>
-      <c r="H57" s="17">
+      <c r="L57" s="17">
         <v>7807321</v>
       </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M57" s="17">
+        <v>8577904</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
+        <v>8395087</v>
+      </c>
+      <c r="E58" s="19">
+        <v>12400813</v>
+      </c>
+      <c r="F58" s="19">
+        <v>12745733</v>
+      </c>
+      <c r="G58" s="19">
+        <v>15694883</v>
+      </c>
+      <c r="H58" s="19">
         <v>17424017</v>
       </c>
-      <c r="E58" s="19">
-        <v>17227303</v>
-      </c>
-      <c r="F58" s="19">
+      <c r="I58" s="19">
+        <v>17055562</v>
+      </c>
+      <c r="J58" s="19">
         <v>24626615</v>
       </c>
-      <c r="G58" s="19">
+      <c r="K58" s="19">
         <v>20007094</v>
       </c>
-      <c r="H58" s="19">
+      <c r="L58" s="19">
         <v>20811988</v>
       </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M58" s="19">
+        <v>22388537</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1819,6 +2612,11 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/lastic/pekavir/balancesheet/quarterly.xlsx
+++ b/database/industries/lastic/pekavir/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekavir\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekavir\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F423DE9-F548-4CB9-81FB-C5B07DB11E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142DAFF5-DDA8-45BE-BAD5-C77069EDE324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل سوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل چهارم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>فصل چهارم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1399-07-27</t>
-  </si>
-  <si>
     <t>1400-12-02 (9)</t>
   </si>
   <si>
@@ -85,7 +82,7 @@
     <t>1400-07-28</t>
   </si>
   <si>
-    <t>1401-11-30 (7)</t>
+    <t>1401-12-12 (8)</t>
   </si>
   <si>
     <t>1401-01-30</t>
@@ -97,7 +94,10 @@
     <t>1401-07-30</t>
   </si>
   <si>
-    <t>1401-11-30</t>
+    <t>1402-01-30 (3)</t>
+  </si>
+  <si>
+    <t>1402-01-30</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -732,19 +732,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
-    <col min="9" max="9" width="31" customWidth="1"/>
-    <col min="10" max="12" width="29" customWidth="1"/>
-    <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="9" max="11" width="29" customWidth="1"/>
+    <col min="12" max="12" width="31" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -758,7 +758,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -774,7 +774,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -790,7 +790,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -804,7 +804,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -820,7 +820,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -836,7 +836,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -850,7 +850,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -886,7 +886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -922,7 +922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -936,7 +936,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -952,49 +952,49 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>938590</v>
+        <v>2349738</v>
       </c>
       <c r="E12" s="15">
-        <v>2349738</v>
+        <v>575854</v>
       </c>
       <c r="F12" s="15">
-        <v>575854</v>
+        <v>767516</v>
       </c>
       <c r="G12" s="15">
-        <v>767516</v>
+        <v>581910</v>
       </c>
       <c r="H12" s="15">
-        <v>581910</v>
+        <v>581417</v>
       </c>
       <c r="I12" s="15">
-        <v>581417</v>
+        <v>648217</v>
       </c>
       <c r="J12" s="15">
-        <v>648217</v>
+        <v>1063322</v>
       </c>
       <c r="K12" s="15">
-        <v>1063322</v>
+        <v>196279</v>
       </c>
       <c r="L12" s="15">
-        <v>196279</v>
+        <v>513723</v>
       </c>
       <c r="M12" s="15">
-        <v>513723</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>863665</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>107500</v>
+        <v>58000</v>
       </c>
       <c r="E13" s="11">
         <v>58000</v>
@@ -1006,133 +1006,133 @@
         <v>58000</v>
       </c>
       <c r="H13" s="11">
-        <v>58000</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
-        <v>0</v>
+        <v>161000</v>
       </c>
       <c r="J13" s="11">
-        <v>161000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="11">
-        <v>0</v>
+        <v>4998</v>
       </c>
       <c r="L13" s="11">
-        <v>4998</v>
+        <v>0</v>
       </c>
       <c r="M13" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>1676993</v>
+        <v>2420728</v>
       </c>
       <c r="E14" s="15">
-        <v>2420728</v>
+        <v>2633811</v>
       </c>
       <c r="F14" s="15">
-        <v>2633811</v>
+        <v>5307261</v>
       </c>
       <c r="G14" s="15">
-        <v>5307261</v>
+        <v>5900624</v>
       </c>
       <c r="H14" s="15">
-        <v>5900624</v>
+        <v>5367012</v>
       </c>
       <c r="I14" s="15">
-        <v>5366986</v>
+        <v>7347795</v>
       </c>
       <c r="J14" s="15">
-        <v>7347795</v>
+        <v>5663775</v>
       </c>
       <c r="K14" s="15">
-        <v>5663775</v>
+        <v>5950610</v>
       </c>
       <c r="L14" s="15">
-        <v>5950610</v>
+        <v>6454804</v>
       </c>
       <c r="M14" s="15">
-        <v>6449375</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>6767130</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>1331635</v>
+        <v>2136589</v>
       </c>
       <c r="E15" s="11">
-        <v>2136589</v>
+        <v>3191472</v>
       </c>
       <c r="F15" s="11">
-        <v>3191472</v>
+        <v>3730432</v>
       </c>
       <c r="G15" s="11">
-        <v>3730432</v>
+        <v>4367693</v>
       </c>
       <c r="H15" s="11">
-        <v>4367693</v>
+        <v>3309072</v>
       </c>
       <c r="I15" s="11">
-        <v>3309072</v>
+        <v>3797879</v>
       </c>
       <c r="J15" s="11">
-        <v>3797879</v>
+        <v>3937220</v>
       </c>
       <c r="K15" s="11">
-        <v>3937220</v>
+        <v>4180563</v>
       </c>
       <c r="L15" s="11">
-        <v>4180563</v>
+        <v>4702942</v>
       </c>
       <c r="M15" s="11">
-        <v>4703571</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+        <v>5652060</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>2300775</v>
+        <v>2306578</v>
       </c>
       <c r="E16" s="15">
-        <v>2306578</v>
+        <v>2774891</v>
       </c>
       <c r="F16" s="15">
-        <v>2774891</v>
+        <v>1410419</v>
       </c>
       <c r="G16" s="15">
-        <v>1410419</v>
+        <v>1583292</v>
       </c>
       <c r="H16" s="15">
-        <v>1583292</v>
+        <v>1874222</v>
       </c>
       <c r="I16" s="15">
-        <v>1874222</v>
+        <v>6443878</v>
       </c>
       <c r="J16" s="15">
-        <v>6443878</v>
+        <v>2301659</v>
       </c>
       <c r="K16" s="15">
-        <v>2301659</v>
+        <v>2303478</v>
       </c>
       <c r="L16" s="15">
-        <v>2303478</v>
+        <v>1242620</v>
       </c>
       <c r="M16" s="15">
-        <v>1242773</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3602277</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>32</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="11">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="K17" s="11">
         <v>1100</v>
@@ -1168,115 +1168,115 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>6355493</v>
+        <v>9271633</v>
       </c>
       <c r="E18" s="17">
-        <v>9271633</v>
+        <v>9234028</v>
       </c>
       <c r="F18" s="17">
-        <v>9234028</v>
+        <v>11273628</v>
       </c>
       <c r="G18" s="17">
-        <v>11273628</v>
+        <v>12491519</v>
       </c>
       <c r="H18" s="17">
-        <v>12491519</v>
+        <v>11131723</v>
       </c>
       <c r="I18" s="17">
-        <v>11131697</v>
+        <v>18398769</v>
       </c>
       <c r="J18" s="17">
-        <v>18398769</v>
+        <v>12967076</v>
       </c>
       <c r="K18" s="17">
-        <v>12967076</v>
+        <v>12637028</v>
       </c>
       <c r="L18" s="17">
-        <v>12637028</v>
+        <v>12915189</v>
       </c>
       <c r="M18" s="17">
-        <v>12910542</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>16886232</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
-        <v>1544</v>
+        <v>1091</v>
       </c>
       <c r="E19" s="11">
-        <v>1091</v>
+        <v>1239</v>
       </c>
       <c r="F19" s="11">
-        <v>1239</v>
+        <v>1504</v>
       </c>
       <c r="G19" s="11">
-        <v>1504</v>
+        <v>2265</v>
       </c>
       <c r="H19" s="11">
-        <v>2265</v>
+        <v>2825</v>
       </c>
       <c r="I19" s="11">
-        <v>2825</v>
+        <v>3255</v>
       </c>
       <c r="J19" s="11">
-        <v>3255</v>
+        <v>4974</v>
       </c>
       <c r="K19" s="11">
-        <v>4974</v>
+        <v>12812</v>
       </c>
       <c r="L19" s="11">
-        <v>12812</v>
+        <v>13884</v>
       </c>
       <c r="M19" s="11">
-        <v>13884</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>10334</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>40305</v>
+        <v>40414</v>
       </c>
       <c r="E20" s="15">
         <v>40414</v>
       </c>
       <c r="F20" s="15">
-        <v>40414</v>
+        <v>76875</v>
       </c>
       <c r="G20" s="15">
-        <v>76875</v>
+        <v>119625</v>
       </c>
       <c r="H20" s="15">
-        <v>119625</v>
+        <v>86663</v>
       </c>
       <c r="I20" s="15">
-        <v>86664</v>
+        <v>124625</v>
       </c>
       <c r="J20" s="15">
-        <v>124625</v>
+        <v>88164</v>
       </c>
       <c r="K20" s="15">
+        <v>53164</v>
+      </c>
+      <c r="L20" s="15">
+        <v>88163</v>
+      </c>
+      <c r="M20" s="15">
         <v>88164</v>
       </c>
-      <c r="L20" s="15">
-        <v>53164</v>
-      </c>
-      <c r="M20" s="15">
-        <v>88163</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>36</v>
       </c>
@@ -1312,79 +1312,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>1974950</v>
+        <v>3044886</v>
       </c>
       <c r="E22" s="15">
-        <v>3044886</v>
+        <v>3448150</v>
       </c>
       <c r="F22" s="15">
-        <v>3448150</v>
+        <v>4265948</v>
       </c>
       <c r="G22" s="15">
-        <v>4265948</v>
+        <v>4736219</v>
       </c>
       <c r="H22" s="15">
-        <v>4736219</v>
+        <v>5680521</v>
       </c>
       <c r="I22" s="15">
-        <v>5717706</v>
+        <v>6007059</v>
       </c>
       <c r="J22" s="15">
-        <v>6007059</v>
+        <v>6818711</v>
       </c>
       <c r="K22" s="15">
-        <v>6818711</v>
+        <v>7978970</v>
       </c>
       <c r="L22" s="15">
-        <v>7978970</v>
+        <v>9222523</v>
       </c>
       <c r="M22" s="15">
-        <v>9210668</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>9580286</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>7624</v>
+        <v>7745</v>
       </c>
       <c r="E23" s="11">
-        <v>7745</v>
+        <v>8353</v>
       </c>
       <c r="F23" s="11">
-        <v>8353</v>
+        <v>47505</v>
       </c>
       <c r="G23" s="11">
-        <v>47505</v>
+        <v>48278</v>
       </c>
       <c r="H23" s="11">
-        <v>48278</v>
+        <v>124111</v>
       </c>
       <c r="I23" s="11">
-        <v>86602</v>
+        <v>61806</v>
       </c>
       <c r="J23" s="11">
-        <v>61806</v>
+        <v>108315</v>
       </c>
       <c r="K23" s="11">
-        <v>108315</v>
+        <v>109242</v>
       </c>
       <c r="L23" s="11">
-        <v>109242</v>
+        <v>157053</v>
       </c>
       <c r="M23" s="11">
-        <v>139769</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+        <v>166495</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>39</v>
       </c>
@@ -1420,115 +1420,115 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
-        <v>15171</v>
+        <v>35044</v>
       </c>
       <c r="E25" s="11">
-        <v>35044</v>
+        <v>13549</v>
       </c>
       <c r="F25" s="11">
-        <v>13549</v>
+        <v>29423</v>
       </c>
       <c r="G25" s="11">
-        <v>29423</v>
+        <v>26111</v>
       </c>
       <c r="H25" s="11">
-        <v>26111</v>
+        <v>30068</v>
       </c>
       <c r="I25" s="11">
-        <v>30068</v>
+        <v>31101</v>
       </c>
       <c r="J25" s="11">
-        <v>31101</v>
+        <v>19854</v>
       </c>
       <c r="K25" s="11">
-        <v>19854</v>
+        <v>20772</v>
       </c>
       <c r="L25" s="11">
-        <v>20772</v>
+        <v>25511</v>
       </c>
       <c r="M25" s="11">
-        <v>25511</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>22075</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>2039594</v>
+        <v>3129180</v>
       </c>
       <c r="E26" s="17">
-        <v>3129180</v>
+        <v>3511705</v>
       </c>
       <c r="F26" s="17">
-        <v>3511705</v>
+        <v>4421255</v>
       </c>
       <c r="G26" s="17">
-        <v>4421255</v>
+        <v>4932498</v>
       </c>
       <c r="H26" s="17">
-        <v>4932498</v>
+        <v>5924188</v>
       </c>
       <c r="I26" s="17">
-        <v>5923865</v>
+        <v>6227846</v>
       </c>
       <c r="J26" s="17">
-        <v>6227846</v>
+        <v>7040018</v>
       </c>
       <c r="K26" s="17">
-        <v>7040018</v>
+        <v>8174960</v>
       </c>
       <c r="L26" s="17">
-        <v>8174960</v>
+        <v>9507134</v>
       </c>
       <c r="M26" s="17">
-        <v>9477995</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>9867354</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>8395087</v>
+        <v>12400813</v>
       </c>
       <c r="E27" s="19">
-        <v>12400813</v>
+        <v>12745733</v>
       </c>
       <c r="F27" s="19">
-        <v>12745733</v>
+        <v>15694883</v>
       </c>
       <c r="G27" s="19">
-        <v>15694883</v>
+        <v>17424017</v>
       </c>
       <c r="H27" s="19">
-        <v>17424017</v>
+        <v>17055911</v>
       </c>
       <c r="I27" s="19">
-        <v>17055562</v>
+        <v>24626615</v>
       </c>
       <c r="J27" s="19">
-        <v>24626615</v>
+        <v>20007094</v>
       </c>
       <c r="K27" s="19">
-        <v>20007094</v>
+        <v>20811988</v>
       </c>
       <c r="L27" s="19">
-        <v>20811988</v>
+        <v>22422323</v>
       </c>
       <c r="M27" s="19">
-        <v>22388537</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>26753586</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>44</v>
       </c>
@@ -1544,43 +1544,43 @@
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>1527490</v>
+        <v>2396182</v>
       </c>
       <c r="E29" s="15">
-        <v>2396182</v>
+        <v>1045744</v>
       </c>
       <c r="F29" s="15">
-        <v>1045744</v>
+        <v>1888235</v>
       </c>
       <c r="G29" s="15">
-        <v>1888235</v>
+        <v>2030897</v>
       </c>
       <c r="H29" s="15">
-        <v>2030897</v>
+        <v>1440440</v>
       </c>
       <c r="I29" s="15">
-        <v>1439766</v>
+        <v>5677378</v>
       </c>
       <c r="J29" s="15">
-        <v>5677378</v>
+        <v>3775500</v>
       </c>
       <c r="K29" s="15">
-        <v>3775500</v>
+        <v>3588194</v>
       </c>
       <c r="L29" s="15">
-        <v>3588194</v>
+        <v>4759428</v>
       </c>
       <c r="M29" s="15">
-        <v>3443655</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+        <v>7522176</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>46</v>
       </c>
@@ -1616,187 +1616,187 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>416085</v>
+        <v>222616</v>
       </c>
       <c r="E31" s="15">
-        <v>222616</v>
+        <v>301655</v>
       </c>
       <c r="F31" s="15">
-        <v>301655</v>
+        <v>603111</v>
       </c>
       <c r="G31" s="15">
-        <v>603111</v>
+        <v>642804</v>
       </c>
       <c r="H31" s="15">
-        <v>642804</v>
+        <v>844676</v>
       </c>
       <c r="I31" s="15">
-        <v>844676</v>
+        <v>1011449</v>
       </c>
       <c r="J31" s="15">
-        <v>1011449</v>
+        <v>906515</v>
       </c>
       <c r="K31" s="15">
-        <v>906515</v>
+        <v>1314134</v>
       </c>
       <c r="L31" s="15">
-        <v>1314134</v>
+        <v>666120</v>
       </c>
       <c r="M31" s="15">
-        <v>666120</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+        <v>396638</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>300113</v>
+        <v>822476</v>
       </c>
       <c r="E32" s="11">
-        <v>822476</v>
+        <v>766180</v>
       </c>
       <c r="F32" s="11">
-        <v>766180</v>
+        <v>1154006</v>
       </c>
       <c r="G32" s="11">
-        <v>1154006</v>
+        <v>1281027</v>
       </c>
       <c r="H32" s="11">
-        <v>1281027</v>
+        <v>957214</v>
       </c>
       <c r="I32" s="11">
-        <v>957214</v>
+        <v>1165441</v>
       </c>
       <c r="J32" s="11">
-        <v>1165441</v>
+        <v>400059</v>
       </c>
       <c r="K32" s="11">
-        <v>400059</v>
+        <v>488203</v>
       </c>
       <c r="L32" s="11">
-        <v>488203</v>
+        <v>476396</v>
       </c>
       <c r="M32" s="11">
-        <v>771179</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+        <v>356299</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
-        <v>132460</v>
+        <v>130134</v>
       </c>
       <c r="E33" s="15">
-        <v>130134</v>
+        <v>1209407</v>
       </c>
       <c r="F33" s="15">
-        <v>1209407</v>
+        <v>1207144</v>
       </c>
       <c r="G33" s="15">
-        <v>1207144</v>
+        <v>1203162</v>
       </c>
       <c r="H33" s="15">
-        <v>1203162</v>
+        <v>73647</v>
       </c>
       <c r="I33" s="15">
-        <v>73647</v>
+        <v>1564409</v>
       </c>
       <c r="J33" s="15">
-        <v>1564409</v>
+        <v>1576672</v>
       </c>
       <c r="K33" s="15">
-        <v>1576672</v>
+        <v>1559081</v>
       </c>
       <c r="L33" s="15">
-        <v>1559081</v>
+        <v>1141188</v>
       </c>
       <c r="M33" s="15">
-        <v>1141188</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3478535</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>2020288</v>
+        <v>3830830</v>
       </c>
       <c r="E34" s="11">
-        <v>3830830</v>
+        <v>4537441</v>
       </c>
       <c r="F34" s="11">
-        <v>4537441</v>
+        <v>4752134</v>
       </c>
       <c r="G34" s="11">
-        <v>4752134</v>
+        <v>5794326</v>
       </c>
       <c r="H34" s="11">
-        <v>5794326</v>
+        <v>5780330</v>
       </c>
       <c r="I34" s="11">
-        <v>5780330</v>
+        <v>7839005</v>
       </c>
       <c r="J34" s="11">
-        <v>7839005</v>
+        <v>4714531</v>
       </c>
       <c r="K34" s="11">
-        <v>4714531</v>
+        <v>4671268</v>
       </c>
       <c r="L34" s="11">
-        <v>4671268</v>
+        <v>5370951</v>
       </c>
       <c r="M34" s="11">
-        <v>5370951</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+        <v>5587489</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>51</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
-        <v>299803</v>
+        <v>1002568</v>
       </c>
       <c r="E35" s="15">
-        <v>1002568</v>
+        <v>81632</v>
       </c>
       <c r="F35" s="15">
-        <v>81632</v>
+        <v>881699</v>
       </c>
       <c r="G35" s="15">
-        <v>881699</v>
+        <v>729597</v>
       </c>
       <c r="H35" s="15">
-        <v>729597</v>
+        <v>1070267</v>
       </c>
       <c r="I35" s="15">
-        <v>1070268</v>
+        <v>382684</v>
       </c>
       <c r="J35" s="15">
-        <v>382684</v>
+        <v>515112</v>
       </c>
       <c r="K35" s="15">
-        <v>515112</v>
+        <v>574209</v>
       </c>
       <c r="L35" s="15">
-        <v>574209</v>
+        <v>835642</v>
       </c>
       <c r="M35" s="15">
-        <v>835642</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1010932</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>52</v>
       </c>
@@ -1832,43 +1832,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>4696239</v>
+        <v>8404806</v>
       </c>
       <c r="E37" s="17">
-        <v>8404806</v>
+        <v>7942059</v>
       </c>
       <c r="F37" s="17">
-        <v>7942059</v>
+        <v>10486329</v>
       </c>
       <c r="G37" s="17">
-        <v>10486329</v>
+        <v>11681813</v>
       </c>
       <c r="H37" s="17">
-        <v>11681813</v>
+        <v>10166574</v>
       </c>
       <c r="I37" s="17">
-        <v>10165901</v>
+        <v>17640366</v>
       </c>
       <c r="J37" s="17">
-        <v>17640366</v>
+        <v>11888389</v>
       </c>
       <c r="K37" s="17">
-        <v>11888389</v>
+        <v>12195089</v>
       </c>
       <c r="L37" s="17">
-        <v>12195089</v>
+        <v>13249725</v>
       </c>
       <c r="M37" s="17">
-        <v>12228735</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+        <v>18352069</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>54</v>
       </c>
@@ -1877,10 +1877,10 @@
         <v>0</v>
       </c>
       <c r="E38" s="11">
-        <v>0</v>
+        <v>59150</v>
       </c>
       <c r="F38" s="11">
-        <v>59150</v>
+        <v>0</v>
       </c>
       <c r="G38" s="11">
         <v>0</v>
@@ -1892,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="J38" s="11">
-        <v>0</v>
+        <v>9804</v>
       </c>
       <c r="K38" s="11">
         <v>9804</v>
       </c>
       <c r="L38" s="11">
-        <v>9804</v>
+        <v>0</v>
       </c>
       <c r="M38" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>55</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>56</v>
       </c>
@@ -1952,139 +1952,139 @@
         <v>0</v>
       </c>
       <c r="F40" s="11">
-        <v>0</v>
+        <v>30138</v>
       </c>
       <c r="G40" s="11">
+        <v>8910</v>
+      </c>
+      <c r="H40" s="11">
+        <v>45208</v>
+      </c>
+      <c r="I40" s="11">
         <v>30138</v>
       </c>
-      <c r="H40" s="11">
-        <v>8910</v>
-      </c>
-      <c r="I40" s="11">
-        <v>45208</v>
-      </c>
       <c r="J40" s="11">
-        <v>30138</v>
+        <v>0</v>
       </c>
       <c r="K40" s="11">
         <v>0</v>
       </c>
       <c r="L40" s="11">
-        <v>0</v>
+        <v>782971</v>
       </c>
       <c r="M40" s="11">
         <v>782971</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>378193</v>
+        <v>372637</v>
       </c>
       <c r="E41" s="15">
-        <v>372637</v>
+        <v>369709</v>
       </c>
       <c r="F41" s="15">
-        <v>369709</v>
+        <v>486048</v>
       </c>
       <c r="G41" s="15">
-        <v>486048</v>
+        <v>488957</v>
       </c>
       <c r="H41" s="15">
-        <v>488957</v>
+        <v>527673</v>
       </c>
       <c r="I41" s="15">
-        <v>527673</v>
+        <v>511172</v>
       </c>
       <c r="J41" s="15">
-        <v>511172</v>
+        <v>719876</v>
       </c>
       <c r="K41" s="15">
-        <v>719876</v>
+        <v>799774</v>
       </c>
       <c r="L41" s="15">
-        <v>799774</v>
+        <v>798927</v>
       </c>
       <c r="M41" s="15">
-        <v>798927</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1136790</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>58</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>378193</v>
+        <v>372637</v>
       </c>
       <c r="E42" s="19">
-        <v>372637</v>
+        <v>428859</v>
       </c>
       <c r="F42" s="19">
-        <v>428859</v>
+        <v>516186</v>
       </c>
       <c r="G42" s="19">
-        <v>516186</v>
+        <v>497867</v>
       </c>
       <c r="H42" s="19">
-        <v>497867</v>
+        <v>572881</v>
       </c>
       <c r="I42" s="19">
-        <v>572881</v>
+        <v>541310</v>
       </c>
       <c r="J42" s="19">
-        <v>541310</v>
+        <v>729680</v>
       </c>
       <c r="K42" s="19">
-        <v>729680</v>
+        <v>809578</v>
       </c>
       <c r="L42" s="19">
-        <v>809578</v>
+        <v>1581898</v>
       </c>
       <c r="M42" s="19">
-        <v>1581898</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1919761</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>59</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>5074432</v>
+        <v>8777443</v>
       </c>
       <c r="E43" s="17">
-        <v>8777443</v>
+        <v>8370918</v>
       </c>
       <c r="F43" s="17">
-        <v>8370918</v>
+        <v>11002515</v>
       </c>
       <c r="G43" s="17">
-        <v>11002515</v>
+        <v>12179680</v>
       </c>
       <c r="H43" s="17">
-        <v>12179680</v>
+        <v>10739455</v>
       </c>
       <c r="I43" s="17">
-        <v>10738782</v>
+        <v>18181676</v>
       </c>
       <c r="J43" s="17">
-        <v>18181676</v>
+        <v>12618069</v>
       </c>
       <c r="K43" s="17">
-        <v>12618069</v>
+        <v>13004667</v>
       </c>
       <c r="L43" s="17">
-        <v>13004667</v>
+        <v>14831623</v>
       </c>
       <c r="M43" s="17">
-        <v>13810633</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+        <v>20271830</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>60</v>
       </c>
@@ -2100,13 +2100,13 @@
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>61</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
-        <v>700000</v>
+        <v>2180000</v>
       </c>
       <c r="E45" s="15">
         <v>2180000</v>
@@ -2124,7 +2124,7 @@
         <v>2180000</v>
       </c>
       <c r="J45" s="15">
-        <v>2180000</v>
+        <v>4360000</v>
       </c>
       <c r="K45" s="15">
         <v>4360000</v>
@@ -2136,7 +2136,7 @@
         <v>4360000</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>62</v>
       </c>
@@ -2172,13 +2172,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>63</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
-        <v>1363865</v>
+        <v>0</v>
       </c>
       <c r="E47" s="15">
         <v>0</v>
@@ -2190,25 +2190,25 @@
         <v>0</v>
       </c>
       <c r="H47" s="15">
-        <v>0</v>
+        <v>962986</v>
       </c>
       <c r="I47" s="15">
-        <v>962986</v>
+        <v>2090389</v>
       </c>
       <c r="J47" s="15">
-        <v>2090389</v>
+        <v>1000000</v>
       </c>
       <c r="K47" s="15">
         <v>1000000</v>
       </c>
       <c r="L47" s="15">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="M47" s="15">
-        <v>998380</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+        <v>262230</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>64</v>
       </c>
@@ -2226,25 +2226,25 @@
         <v>0</v>
       </c>
       <c r="H48" s="11">
-        <v>0</v>
+        <v>-130408</v>
       </c>
       <c r="I48" s="11">
-        <v>-130408</v>
+        <v>0</v>
       </c>
       <c r="J48" s="11">
-        <v>0</v>
+        <v>-126667</v>
       </c>
       <c r="K48" s="11">
         <v>-126667</v>
       </c>
       <c r="L48" s="11">
-        <v>-126667</v>
+        <v>-151195</v>
       </c>
       <c r="M48" s="11">
-        <v>-151195</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-176628</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>65</v>
       </c>
@@ -2262,61 +2262,61 @@
         <v>0</v>
       </c>
       <c r="H49" s="15">
-        <v>0</v>
+        <v>40957</v>
       </c>
       <c r="I49" s="15">
-        <v>40957</v>
+        <v>0</v>
       </c>
       <c r="J49" s="15">
-        <v>0</v>
+        <v>42542</v>
       </c>
       <c r="K49" s="15">
         <v>42542</v>
       </c>
       <c r="L49" s="15">
-        <v>42542</v>
+        <v>32123</v>
       </c>
       <c r="M49" s="15">
-        <v>32123</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+        <v>32723</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>70000</v>
+        <v>175834</v>
       </c>
       <c r="E50" s="11">
-        <v>175834</v>
+        <v>219637</v>
       </c>
       <c r="F50" s="11">
-        <v>219637</v>
+        <v>275647</v>
       </c>
       <c r="G50" s="11">
-        <v>275647</v>
+        <v>303246</v>
       </c>
       <c r="H50" s="11">
-        <v>303246</v>
+        <v>321312</v>
       </c>
       <c r="I50" s="11">
-        <v>321328</v>
+        <v>343193</v>
       </c>
       <c r="J50" s="11">
-        <v>343193</v>
+        <v>340123</v>
       </c>
       <c r="K50" s="11">
-        <v>340123</v>
+        <v>361043</v>
       </c>
       <c r="L50" s="11">
-        <v>361043</v>
+        <v>401954</v>
       </c>
       <c r="M50" s="11">
-        <v>401395</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+        <v>452358</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>67</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>68</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>69</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>70</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>71</v>
       </c>
@@ -2496,115 +2496,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>1161790</v>
+        <v>1242536</v>
       </c>
       <c r="E56" s="11">
-        <v>1242536</v>
+        <v>1950178</v>
       </c>
       <c r="F56" s="11">
-        <v>1950178</v>
+        <v>2211721</v>
       </c>
       <c r="G56" s="11">
-        <v>2211721</v>
+        <v>2736091</v>
       </c>
       <c r="H56" s="11">
-        <v>2736091</v>
+        <v>2916609</v>
       </c>
       <c r="I56" s="11">
-        <v>2916917</v>
+        <v>1806357</v>
       </c>
       <c r="J56" s="11">
-        <v>1806357</v>
+        <v>1748027</v>
       </c>
       <c r="K56" s="11">
-        <v>1748027</v>
+        <v>2145403</v>
       </c>
       <c r="L56" s="11">
-        <v>2145403</v>
+        <v>2922818</v>
       </c>
       <c r="M56" s="11">
-        <v>2912201</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1526073</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>73</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>3320655</v>
+        <v>3623370</v>
       </c>
       <c r="E57" s="17">
-        <v>3623370</v>
+        <v>4374815</v>
       </c>
       <c r="F57" s="17">
-        <v>4374815</v>
+        <v>4692368</v>
       </c>
       <c r="G57" s="17">
-        <v>4692368</v>
+        <v>5244337</v>
       </c>
       <c r="H57" s="17">
-        <v>5244337</v>
+        <v>6316456</v>
       </c>
       <c r="I57" s="17">
-        <v>6316780</v>
+        <v>6444939</v>
       </c>
       <c r="J57" s="17">
-        <v>6444939</v>
+        <v>7389025</v>
       </c>
       <c r="K57" s="17">
-        <v>7389025</v>
+        <v>7807321</v>
       </c>
       <c r="L57" s="17">
-        <v>7807321</v>
+        <v>7590700</v>
       </c>
       <c r="M57" s="17">
-        <v>8577904</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+        <v>6481756</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>8395087</v>
+        <v>12400813</v>
       </c>
       <c r="E58" s="19">
-        <v>12400813</v>
+        <v>12745733</v>
       </c>
       <c r="F58" s="19">
-        <v>12745733</v>
+        <v>15694883</v>
       </c>
       <c r="G58" s="19">
-        <v>15694883</v>
+        <v>17424017</v>
       </c>
       <c r="H58" s="19">
-        <v>17424017</v>
+        <v>17055911</v>
       </c>
       <c r="I58" s="19">
-        <v>17055562</v>
+        <v>24626615</v>
       </c>
       <c r="J58" s="19">
-        <v>24626615</v>
+        <v>20007094</v>
       </c>
       <c r="K58" s="19">
-        <v>20007094</v>
+        <v>20811988</v>
       </c>
       <c r="L58" s="19">
-        <v>20811988</v>
+        <v>22422323</v>
       </c>
       <c r="M58" s="19">
-        <v>22388537</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+        <v>26753586</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>

--- a/database/industries/lastic/pekavir/balancesheet/quarterly.xlsx
+++ b/database/industries/lastic/pekavir/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekavir\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\lastic\pekavir\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142DAFF5-DDA8-45BE-BAD5-C77069EDE324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB9C6D3-032B-4017-8083-5D9678C1AD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="95">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,30 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/06</t>
+  </si>
+  <si>
     <t>فصل چهارم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,9 +91,39 @@
     <t>فصل اول منتهی به 1401/12</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1402/06</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1398-11-28 (11)</t>
+  </si>
+  <si>
+    <t>1398-02-10</t>
+  </si>
+  <si>
+    <t>1398-06-06 (4)</t>
+  </si>
+  <si>
+    <t>1398-07-30</t>
+  </si>
+  <si>
+    <t>1399-12-02 (8)</t>
+  </si>
+  <si>
+    <t>1399-12-02 (2)</t>
+  </si>
+  <si>
+    <t>1399-05-28 (2)</t>
+  </si>
+  <si>
+    <t>1399-07-27</t>
+  </si>
+  <si>
     <t>1400-12-02 (9)</t>
   </si>
   <si>
@@ -94,10 +148,16 @@
     <t>1401-07-30</t>
   </si>
   <si>
-    <t>1402-01-30 (3)</t>
+    <t>1402-07-30 (6)</t>
   </si>
   <si>
     <t>1402-01-30</t>
+  </si>
+  <si>
+    <t>1402-06-13 (2)</t>
+  </si>
+  <si>
+    <t>1402-07-30</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -728,7 +788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M59"/>
+  <dimension ref="B1:W59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -741,10 +801,14 @@
     <col min="8" max="8" width="31" customWidth="1"/>
     <col min="9" max="11" width="29" customWidth="1"/>
     <col min="12" max="12" width="31" customWidth="1"/>
-    <col min="13" max="13" width="29" customWidth="1"/>
+    <col min="13" max="15" width="29" customWidth="1"/>
+    <col min="16" max="16" width="31" customWidth="1"/>
+    <col min="17" max="19" width="29" customWidth="1"/>
+    <col min="20" max="20" width="31" customWidth="1"/>
+    <col min="21" max="23" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -757,8 +821,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -773,8 +847,18 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -789,8 +873,18 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -803,8 +897,18 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -819,8 +923,18 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -835,8 +949,18 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -849,8 +973,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -885,44 +1019,104 @@
       <c r="M8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -935,10 +1129,20 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -951,190 +1155,350 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>369591</v>
+      </c>
+      <c r="E12" s="15">
+        <v>417629</v>
+      </c>
+      <c r="F12" s="15">
+        <v>238885</v>
+      </c>
+      <c r="G12" s="15">
+        <v>553170</v>
+      </c>
+      <c r="H12" s="15">
+        <v>361793</v>
+      </c>
+      <c r="I12" s="15">
         <v>2349738</v>
       </c>
-      <c r="E12" s="15">
+      <c r="J12" s="15">
+        <v>193691</v>
+      </c>
+      <c r="K12" s="15">
+        <v>938590</v>
+      </c>
+      <c r="L12" s="15">
+        <v>2349738</v>
+      </c>
+      <c r="M12" s="15">
         <v>575854</v>
       </c>
-      <c r="F12" s="15">
+      <c r="N12" s="15">
         <v>767516</v>
       </c>
-      <c r="G12" s="15">
+      <c r="O12" s="15">
         <v>581910</v>
       </c>
-      <c r="H12" s="15">
+      <c r="P12" s="15">
         <v>581417</v>
       </c>
-      <c r="I12" s="15">
+      <c r="Q12" s="15">
         <v>648217</v>
       </c>
-      <c r="J12" s="15">
+      <c r="R12" s="15">
         <v>1063322</v>
       </c>
-      <c r="K12" s="15">
+      <c r="S12" s="15">
         <v>196279</v>
       </c>
-      <c r="L12" s="15">
+      <c r="T12" s="15">
         <v>513723</v>
       </c>
-      <c r="M12" s="15">
+      <c r="U12" s="15">
         <v>863665</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V12" s="15">
+        <v>1744274</v>
+      </c>
+      <c r="W12" s="15">
+        <v>2814820</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
+        <v>70000</v>
+      </c>
+      <c r="E13" s="11">
+        <v>70000</v>
+      </c>
+      <c r="F13" s="11">
+        <v>55000</v>
+      </c>
+      <c r="G13" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H13" s="11">
+        <v>106000</v>
+      </c>
+      <c r="I13" s="11">
         <v>58000</v>
       </c>
-      <c r="E13" s="11">
+      <c r="J13" s="11">
+        <v>107500</v>
+      </c>
+      <c r="K13" s="11">
+        <v>107500</v>
+      </c>
+      <c r="L13" s="11">
         <v>58000</v>
       </c>
-      <c r="F13" s="11">
+      <c r="M13" s="11">
         <v>58000</v>
       </c>
-      <c r="G13" s="11">
+      <c r="N13" s="11">
         <v>58000</v>
       </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11">
+      <c r="O13" s="11">
+        <v>58000</v>
+      </c>
+      <c r="P13" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="11">
         <v>161000</v>
       </c>
-      <c r="J13" s="11">
-        <v>0</v>
-      </c>
-      <c r="K13" s="11">
+      <c r="R13" s="11">
+        <v>0</v>
+      </c>
+      <c r="S13" s="11">
         <v>4998</v>
       </c>
-      <c r="L13" s="11">
-        <v>0</v>
-      </c>
-      <c r="M13" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="T13" s="11">
+        <v>0</v>
+      </c>
+      <c r="U13" s="11">
+        <v>0</v>
+      </c>
+      <c r="V13" s="11">
+        <v>0</v>
+      </c>
+      <c r="W13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
+        <v>1595332</v>
+      </c>
+      <c r="E14" s="15">
+        <v>1256849</v>
+      </c>
+      <c r="F14" s="15">
+        <v>1035909</v>
+      </c>
+      <c r="G14" s="15">
+        <v>942543</v>
+      </c>
+      <c r="H14" s="15">
+        <v>1033892</v>
+      </c>
+      <c r="I14" s="15">
         <v>2420728</v>
       </c>
-      <c r="E14" s="15">
+      <c r="J14" s="15">
+        <v>1675525</v>
+      </c>
+      <c r="K14" s="15">
+        <v>1676993</v>
+      </c>
+      <c r="L14" s="15">
+        <v>2420728</v>
+      </c>
+      <c r="M14" s="15">
         <v>2633811</v>
       </c>
-      <c r="F14" s="15">
+      <c r="N14" s="15">
         <v>5307261</v>
       </c>
-      <c r="G14" s="15">
+      <c r="O14" s="15">
         <v>5900624</v>
       </c>
-      <c r="H14" s="15">
+      <c r="P14" s="15">
         <v>5367012</v>
       </c>
-      <c r="I14" s="15">
+      <c r="Q14" s="15">
         <v>7347795</v>
       </c>
-      <c r="J14" s="15">
+      <c r="R14" s="15">
         <v>5663775</v>
       </c>
-      <c r="K14" s="15">
+      <c r="S14" s="15">
         <v>5950610</v>
       </c>
-      <c r="L14" s="15">
+      <c r="T14" s="15">
         <v>6454804</v>
       </c>
-      <c r="M14" s="15">
+      <c r="U14" s="15">
         <v>6767130</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V14" s="15">
+        <v>8966427</v>
+      </c>
+      <c r="W14" s="15">
+        <v>8823134</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
+        <v>832755</v>
+      </c>
+      <c r="E15" s="11">
+        <v>944965</v>
+      </c>
+      <c r="F15" s="11">
+        <v>705002</v>
+      </c>
+      <c r="G15" s="11">
+        <v>851091</v>
+      </c>
+      <c r="H15" s="11">
+        <v>979973</v>
+      </c>
+      <c r="I15" s="11">
+        <v>2127853</v>
+      </c>
+      <c r="J15" s="11">
+        <v>1154639</v>
+      </c>
+      <c r="K15" s="11">
+        <v>1331635</v>
+      </c>
+      <c r="L15" s="11">
         <v>2136589</v>
       </c>
-      <c r="E15" s="11">
+      <c r="M15" s="11">
         <v>3191472</v>
       </c>
-      <c r="F15" s="11">
+      <c r="N15" s="11">
         <v>3730432</v>
       </c>
-      <c r="G15" s="11">
+      <c r="O15" s="11">
         <v>4367693</v>
       </c>
-      <c r="H15" s="11">
+      <c r="P15" s="11">
         <v>3309072</v>
       </c>
-      <c r="I15" s="11">
+      <c r="Q15" s="11">
         <v>3797879</v>
       </c>
-      <c r="J15" s="11">
+      <c r="R15" s="11">
         <v>3937220</v>
       </c>
-      <c r="K15" s="11">
+      <c r="S15" s="11">
         <v>4180563</v>
       </c>
-      <c r="L15" s="11">
+      <c r="T15" s="11">
         <v>4702942</v>
       </c>
-      <c r="M15" s="11">
+      <c r="U15" s="11">
         <v>5652060</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V15" s="11">
+        <v>6165238</v>
+      </c>
+      <c r="W15" s="11">
+        <v>7534631</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
+        <v>581015</v>
+      </c>
+      <c r="E16" s="15">
+        <v>1179254</v>
+      </c>
+      <c r="F16" s="15">
+        <v>1333622</v>
+      </c>
+      <c r="G16" s="15">
+        <v>1742178</v>
+      </c>
+      <c r="H16" s="15">
+        <v>678287</v>
+      </c>
+      <c r="I16" s="15">
+        <v>2330538</v>
+      </c>
+      <c r="J16" s="15">
+        <v>848972</v>
+      </c>
+      <c r="K16" s="15">
+        <v>2300775</v>
+      </c>
+      <c r="L16" s="15">
         <v>2306578</v>
       </c>
-      <c r="E16" s="15">
+      <c r="M16" s="15">
         <v>2774891</v>
       </c>
-      <c r="F16" s="15">
+      <c r="N16" s="15">
         <v>1410419</v>
       </c>
-      <c r="G16" s="15">
+      <c r="O16" s="15">
         <v>1583292</v>
       </c>
-      <c r="H16" s="15">
+      <c r="P16" s="15">
         <v>1874222</v>
       </c>
-      <c r="I16" s="15">
+      <c r="Q16" s="15">
         <v>6443878</v>
       </c>
-      <c r="J16" s="15">
+      <c r="R16" s="15">
         <v>2301659</v>
       </c>
-      <c r="K16" s="15">
+      <c r="S16" s="15">
         <v>2303478</v>
       </c>
-      <c r="L16" s="15">
+      <c r="T16" s="15">
         <v>1242620</v>
       </c>
-      <c r="M16" s="15">
+      <c r="U16" s="15">
         <v>3602277</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V16" s="15">
+        <v>2078488</v>
+      </c>
+      <c r="W16" s="15">
+        <v>5391847</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
@@ -1156,129 +1520,249 @@
         <v>0</v>
       </c>
       <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+      <c r="O17" s="11">
+        <v>0</v>
+      </c>
+      <c r="P17" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>0</v>
+      </c>
+      <c r="R17" s="11">
         <v>1100</v>
       </c>
-      <c r="K17" s="11">
+      <c r="S17" s="11">
         <v>1100</v>
       </c>
-      <c r="L17" s="11">
+      <c r="T17" s="11">
         <v>1100</v>
       </c>
-      <c r="M17" s="11">
+      <c r="U17" s="11">
         <v>1100</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V17" s="11">
+        <v>1100</v>
+      </c>
+      <c r="W17" s="11">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
+        <v>3448693</v>
+      </c>
+      <c r="E18" s="17">
+        <v>3868697</v>
+      </c>
+      <c r="F18" s="17">
+        <v>3368418</v>
+      </c>
+      <c r="G18" s="17">
+        <v>4188982</v>
+      </c>
+      <c r="H18" s="17">
+        <v>3159945</v>
+      </c>
+      <c r="I18" s="17">
+        <v>9286857</v>
+      </c>
+      <c r="J18" s="17">
+        <v>3980327</v>
+      </c>
+      <c r="K18" s="17">
+        <v>6355493</v>
+      </c>
+      <c r="L18" s="17">
         <v>9271633</v>
       </c>
-      <c r="E18" s="17">
+      <c r="M18" s="17">
         <v>9234028</v>
       </c>
-      <c r="F18" s="17">
+      <c r="N18" s="17">
         <v>11273628</v>
       </c>
-      <c r="G18" s="17">
+      <c r="O18" s="17">
         <v>12491519</v>
       </c>
-      <c r="H18" s="17">
+      <c r="P18" s="17">
         <v>11131723</v>
       </c>
-      <c r="I18" s="17">
+      <c r="Q18" s="17">
         <v>18398769</v>
       </c>
-      <c r="J18" s="17">
+      <c r="R18" s="17">
         <v>12967076</v>
       </c>
-      <c r="K18" s="17">
+      <c r="S18" s="17">
         <v>12637028</v>
       </c>
-      <c r="L18" s="17">
+      <c r="T18" s="17">
         <v>12915189</v>
       </c>
-      <c r="M18" s="17">
+      <c r="U18" s="17">
         <v>16886232</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V18" s="17">
+        <v>18955527</v>
+      </c>
+      <c r="W18" s="17">
+        <v>24565532</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
+        <v>2247</v>
+      </c>
+      <c r="E19" s="11">
+        <v>2168</v>
+      </c>
+      <c r="F19" s="11">
+        <v>1132</v>
+      </c>
+      <c r="G19" s="11">
+        <v>1077</v>
+      </c>
+      <c r="H19" s="11">
+        <v>1351</v>
+      </c>
+      <c r="I19" s="11">
         <v>1091</v>
       </c>
-      <c r="E19" s="11">
+      <c r="J19" s="11">
+        <v>1598</v>
+      </c>
+      <c r="K19" s="11">
+        <v>1544</v>
+      </c>
+      <c r="L19" s="11">
+        <v>1091</v>
+      </c>
+      <c r="M19" s="11">
         <v>1239</v>
       </c>
-      <c r="F19" s="11">
+      <c r="N19" s="11">
         <v>1504</v>
       </c>
-      <c r="G19" s="11">
+      <c r="O19" s="11">
         <v>2265</v>
       </c>
-      <c r="H19" s="11">
+      <c r="P19" s="11">
         <v>2825</v>
       </c>
-      <c r="I19" s="11">
+      <c r="Q19" s="11">
         <v>3255</v>
       </c>
-      <c r="J19" s="11">
+      <c r="R19" s="11">
         <v>4974</v>
       </c>
-      <c r="K19" s="11">
+      <c r="S19" s="11">
         <v>12812</v>
       </c>
-      <c r="L19" s="11">
+      <c r="T19" s="11">
         <v>13884</v>
       </c>
-      <c r="M19" s="11">
+      <c r="U19" s="11">
         <v>10334</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V19" s="11">
+        <v>29927</v>
+      </c>
+      <c r="W19" s="11">
+        <v>43550</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
+        <v>34826</v>
+      </c>
+      <c r="E20" s="15">
+        <v>34826</v>
+      </c>
+      <c r="F20" s="15">
+        <v>36072</v>
+      </c>
+      <c r="G20" s="15">
+        <v>36278</v>
+      </c>
+      <c r="H20" s="15">
+        <v>38721</v>
+      </c>
+      <c r="I20" s="15">
         <v>40414</v>
       </c>
-      <c r="E20" s="15">
+      <c r="J20" s="15">
+        <v>40305</v>
+      </c>
+      <c r="K20" s="15">
+        <v>40305</v>
+      </c>
+      <c r="L20" s="15">
         <v>40414</v>
       </c>
-      <c r="F20" s="15">
+      <c r="M20" s="15">
+        <v>40414</v>
+      </c>
+      <c r="N20" s="15">
         <v>76875</v>
       </c>
-      <c r="G20" s="15">
+      <c r="O20" s="15">
         <v>119625</v>
       </c>
-      <c r="H20" s="15">
+      <c r="P20" s="15">
         <v>86663</v>
       </c>
-      <c r="I20" s="15">
+      <c r="Q20" s="15">
         <v>124625</v>
       </c>
-      <c r="J20" s="15">
+      <c r="R20" s="15">
         <v>88164</v>
       </c>
-      <c r="K20" s="15">
+      <c r="S20" s="15">
         <v>53164</v>
       </c>
-      <c r="L20" s="15">
+      <c r="T20" s="15">
         <v>88163</v>
       </c>
-      <c r="M20" s="15">
+      <c r="U20" s="15">
         <v>88164</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V20" s="15">
+        <v>88163</v>
+      </c>
+      <c r="W20" s="15">
+        <v>88163</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1311,226 +1795,436 @@
       <c r="M21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N21" s="11">
+        <v>0</v>
+      </c>
+      <c r="O21" s="11">
+        <v>0</v>
+      </c>
+      <c r="P21" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>0</v>
+      </c>
+      <c r="R21" s="11">
+        <v>0</v>
+      </c>
+      <c r="S21" s="11">
+        <v>0</v>
+      </c>
+      <c r="T21" s="11">
+        <v>0</v>
+      </c>
+      <c r="U21" s="11">
+        <v>0</v>
+      </c>
+      <c r="V21" s="11">
+        <v>0</v>
+      </c>
+      <c r="W21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
+        <v>787406</v>
+      </c>
+      <c r="E22" s="15">
+        <v>690972</v>
+      </c>
+      <c r="F22" s="15">
+        <v>693648</v>
+      </c>
+      <c r="G22" s="15">
+        <v>740935</v>
+      </c>
+      <c r="H22" s="15">
+        <v>1288785</v>
+      </c>
+      <c r="I22" s="15">
         <v>3044886</v>
       </c>
-      <c r="E22" s="15">
+      <c r="J22" s="15">
+        <v>1625943</v>
+      </c>
+      <c r="K22" s="15">
+        <v>1974950</v>
+      </c>
+      <c r="L22" s="15">
+        <v>3044886</v>
+      </c>
+      <c r="M22" s="15">
         <v>3448150</v>
       </c>
-      <c r="F22" s="15">
+      <c r="N22" s="15">
         <v>4265948</v>
       </c>
-      <c r="G22" s="15">
+      <c r="O22" s="15">
         <v>4736219</v>
       </c>
-      <c r="H22" s="15">
+      <c r="P22" s="15">
         <v>5680521</v>
       </c>
-      <c r="I22" s="15">
+      <c r="Q22" s="15">
         <v>6007059</v>
       </c>
-      <c r="J22" s="15">
+      <c r="R22" s="15">
         <v>6818711</v>
       </c>
-      <c r="K22" s="15">
+      <c r="S22" s="15">
         <v>7978970</v>
       </c>
-      <c r="L22" s="15">
+      <c r="T22" s="15">
         <v>9222523</v>
       </c>
-      <c r="M22" s="15">
+      <c r="U22" s="15">
         <v>9580286</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V22" s="15">
+        <v>10366626</v>
+      </c>
+      <c r="W22" s="15">
+        <v>10670441</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
+        <v>5920</v>
+      </c>
+      <c r="E23" s="11">
+        <v>6690</v>
+      </c>
+      <c r="F23" s="11">
+        <v>6509</v>
+      </c>
+      <c r="G23" s="11">
+        <v>25175</v>
+      </c>
+      <c r="H23" s="11">
+        <v>30402</v>
+      </c>
+      <c r="I23" s="11">
         <v>7745</v>
       </c>
-      <c r="E23" s="11">
+      <c r="J23" s="11">
+        <v>46707</v>
+      </c>
+      <c r="K23" s="11">
+        <v>7624</v>
+      </c>
+      <c r="L23" s="11">
+        <v>7745</v>
+      </c>
+      <c r="M23" s="11">
         <v>8353</v>
       </c>
-      <c r="F23" s="11">
+      <c r="N23" s="11">
         <v>47505</v>
       </c>
-      <c r="G23" s="11">
+      <c r="O23" s="11">
         <v>48278</v>
       </c>
-      <c r="H23" s="11">
+      <c r="P23" s="11">
         <v>124111</v>
       </c>
-      <c r="I23" s="11">
+      <c r="Q23" s="11">
         <v>61806</v>
       </c>
-      <c r="J23" s="11">
+      <c r="R23" s="11">
         <v>108315</v>
       </c>
-      <c r="K23" s="11">
+      <c r="S23" s="11">
         <v>109242</v>
       </c>
-      <c r="L23" s="11">
+      <c r="T23" s="11">
         <v>157053</v>
       </c>
-      <c r="M23" s="11">
+      <c r="U23" s="11">
         <v>166495</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V23" s="11">
+        <v>155887</v>
+      </c>
+      <c r="W23" s="11">
+        <v>198084</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="T24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="U24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="V24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="W24" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
+        <v>25925</v>
+      </c>
+      <c r="E25" s="11">
+        <v>148929</v>
+      </c>
+      <c r="F25" s="11">
+        <v>70013</v>
+      </c>
+      <c r="G25" s="11">
+        <v>304050</v>
+      </c>
+      <c r="H25" s="11">
+        <v>15627</v>
+      </c>
+      <c r="I25" s="11">
         <v>35044</v>
       </c>
-      <c r="E25" s="11">
+      <c r="J25" s="11">
+        <v>12303</v>
+      </c>
+      <c r="K25" s="11">
+        <v>15171</v>
+      </c>
+      <c r="L25" s="11">
+        <v>35044</v>
+      </c>
+      <c r="M25" s="11">
         <v>13549</v>
       </c>
-      <c r="F25" s="11">
+      <c r="N25" s="11">
         <v>29423</v>
       </c>
-      <c r="G25" s="11">
+      <c r="O25" s="11">
         <v>26111</v>
       </c>
-      <c r="H25" s="11">
+      <c r="P25" s="11">
         <v>30068</v>
       </c>
-      <c r="I25" s="11">
+      <c r="Q25" s="11">
         <v>31101</v>
       </c>
-      <c r="J25" s="11">
+      <c r="R25" s="11">
         <v>19854</v>
       </c>
-      <c r="K25" s="11">
+      <c r="S25" s="11">
         <v>20772</v>
       </c>
-      <c r="L25" s="11">
+      <c r="T25" s="11">
         <v>25511</v>
       </c>
-      <c r="M25" s="11">
+      <c r="U25" s="11">
         <v>22075</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V25" s="11">
+        <v>45982</v>
+      </c>
+      <c r="W25" s="11">
+        <v>61885</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
+        <v>856324</v>
+      </c>
+      <c r="E26" s="17">
+        <v>883585</v>
+      </c>
+      <c r="F26" s="17">
+        <v>807374</v>
+      </c>
+      <c r="G26" s="17">
+        <v>1107515</v>
+      </c>
+      <c r="H26" s="17">
+        <v>1374886</v>
+      </c>
+      <c r="I26" s="17">
         <v>3129180</v>
       </c>
-      <c r="E26" s="17">
+      <c r="J26" s="17">
+        <v>1726856</v>
+      </c>
+      <c r="K26" s="17">
+        <v>2039594</v>
+      </c>
+      <c r="L26" s="17">
+        <v>3129180</v>
+      </c>
+      <c r="M26" s="17">
         <v>3511705</v>
       </c>
-      <c r="F26" s="17">
+      <c r="N26" s="17">
         <v>4421255</v>
       </c>
-      <c r="G26" s="17">
+      <c r="O26" s="17">
         <v>4932498</v>
       </c>
-      <c r="H26" s="17">
+      <c r="P26" s="17">
         <v>5924188</v>
       </c>
-      <c r="I26" s="17">
+      <c r="Q26" s="17">
         <v>6227846</v>
       </c>
-      <c r="J26" s="17">
+      <c r="R26" s="17">
         <v>7040018</v>
       </c>
-      <c r="K26" s="17">
+      <c r="S26" s="17">
         <v>8174960</v>
       </c>
-      <c r="L26" s="17">
+      <c r="T26" s="17">
         <v>9507134</v>
       </c>
-      <c r="M26" s="17">
+      <c r="U26" s="17">
         <v>9867354</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V26" s="17">
+        <v>10686585</v>
+      </c>
+      <c r="W26" s="17">
+        <v>11062123</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
+        <v>4305017</v>
+      </c>
+      <c r="E27" s="19">
+        <v>4752282</v>
+      </c>
+      <c r="F27" s="19">
+        <v>4175792</v>
+      </c>
+      <c r="G27" s="19">
+        <v>5296497</v>
+      </c>
+      <c r="H27" s="19">
+        <v>4534831</v>
+      </c>
+      <c r="I27" s="19">
+        <v>12416037</v>
+      </c>
+      <c r="J27" s="19">
+        <v>5707183</v>
+      </c>
+      <c r="K27" s="19">
+        <v>8395087</v>
+      </c>
+      <c r="L27" s="19">
         <v>12400813</v>
       </c>
-      <c r="E27" s="19">
+      <c r="M27" s="19">
         <v>12745733</v>
       </c>
-      <c r="F27" s="19">
+      <c r="N27" s="19">
         <v>15694883</v>
       </c>
-      <c r="G27" s="19">
+      <c r="O27" s="19">
         <v>17424017</v>
       </c>
-      <c r="H27" s="19">
+      <c r="P27" s="19">
         <v>17055911</v>
       </c>
-      <c r="I27" s="19">
+      <c r="Q27" s="19">
         <v>24626615</v>
       </c>
-      <c r="J27" s="19">
+      <c r="R27" s="19">
         <v>20007094</v>
       </c>
-      <c r="K27" s="19">
+      <c r="S27" s="19">
         <v>20811988</v>
       </c>
-      <c r="L27" s="19">
+      <c r="T27" s="19">
         <v>22422323</v>
       </c>
-      <c r="M27" s="19">
+      <c r="U27" s="19">
         <v>26753586</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V27" s="19">
+        <v>29642112</v>
+      </c>
+      <c r="W27" s="19">
+        <v>35627655</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1543,262 +2237,482 @@
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
+        <v>962414</v>
+      </c>
+      <c r="E29" s="15">
+        <v>986433</v>
+      </c>
+      <c r="F29" s="15">
+        <v>775934</v>
+      </c>
+      <c r="G29" s="15">
+        <v>1258295</v>
+      </c>
+      <c r="H29" s="15">
+        <v>697713</v>
+      </c>
+      <c r="I29" s="15">
+        <v>2571136</v>
+      </c>
+      <c r="J29" s="15">
+        <v>925811</v>
+      </c>
+      <c r="K29" s="15">
+        <v>1527490</v>
+      </c>
+      <c r="L29" s="15">
         <v>2396182</v>
       </c>
-      <c r="E29" s="15">
+      <c r="M29" s="15">
         <v>1045744</v>
       </c>
-      <c r="F29" s="15">
+      <c r="N29" s="15">
         <v>1888235</v>
       </c>
-      <c r="G29" s="15">
+      <c r="O29" s="15">
         <v>2030897</v>
       </c>
-      <c r="H29" s="15">
+      <c r="P29" s="15">
         <v>1440440</v>
       </c>
-      <c r="I29" s="15">
+      <c r="Q29" s="15">
         <v>5677378</v>
       </c>
-      <c r="J29" s="15">
+      <c r="R29" s="15">
         <v>3775500</v>
       </c>
-      <c r="K29" s="15">
+      <c r="S29" s="15">
         <v>3588194</v>
       </c>
-      <c r="L29" s="15">
-        <v>4759428</v>
-      </c>
-      <c r="M29" s="15">
+      <c r="T29" s="15">
+        <v>4759429</v>
+      </c>
+      <c r="U29" s="15">
         <v>7522176</v>
       </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V29" s="15">
+        <v>6503654</v>
+      </c>
+      <c r="W29" s="15">
+        <v>9848293</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="R30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="S30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="T30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W30" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
+        <v>39432</v>
+      </c>
+      <c r="E31" s="15">
+        <v>272064</v>
+      </c>
+      <c r="F31" s="15">
+        <v>196773</v>
+      </c>
+      <c r="G31" s="15">
+        <v>505294</v>
+      </c>
+      <c r="H31" s="15">
+        <v>304292</v>
+      </c>
+      <c r="I31" s="15">
         <v>222616</v>
       </c>
-      <c r="E31" s="15">
+      <c r="J31" s="15">
+        <v>176601</v>
+      </c>
+      <c r="K31" s="15">
+        <v>416085</v>
+      </c>
+      <c r="L31" s="15">
+        <v>222616</v>
+      </c>
+      <c r="M31" s="15">
         <v>301655</v>
       </c>
-      <c r="F31" s="15">
+      <c r="N31" s="15">
         <v>603111</v>
       </c>
-      <c r="G31" s="15">
+      <c r="O31" s="15">
         <v>642804</v>
       </c>
-      <c r="H31" s="15">
+      <c r="P31" s="15">
         <v>844676</v>
       </c>
-      <c r="I31" s="15">
+      <c r="Q31" s="15">
         <v>1011449</v>
       </c>
-      <c r="J31" s="15">
+      <c r="R31" s="15">
         <v>906515</v>
       </c>
-      <c r="K31" s="15">
+      <c r="S31" s="15">
         <v>1314134</v>
       </c>
-      <c r="L31" s="15">
+      <c r="T31" s="15">
         <v>666120</v>
       </c>
-      <c r="M31" s="15">
+      <c r="U31" s="15">
         <v>396638</v>
       </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V31" s="15">
+        <v>1277154</v>
+      </c>
+      <c r="W31" s="15">
+        <v>1391808</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
+        <v>143566</v>
+      </c>
+      <c r="E32" s="11">
+        <v>150838</v>
+      </c>
+      <c r="F32" s="11">
+        <v>143566</v>
+      </c>
+      <c r="G32" s="11">
+        <v>130669</v>
+      </c>
+      <c r="H32" s="11">
+        <v>176793</v>
+      </c>
+      <c r="I32" s="11">
+        <v>517896</v>
+      </c>
+      <c r="J32" s="11">
+        <v>156093</v>
+      </c>
+      <c r="K32" s="11">
+        <v>300113</v>
+      </c>
+      <c r="L32" s="11">
         <v>822476</v>
       </c>
-      <c r="E32" s="11">
+      <c r="M32" s="11">
         <v>766180</v>
       </c>
-      <c r="F32" s="11">
+      <c r="N32" s="11">
         <v>1154006</v>
       </c>
-      <c r="G32" s="11">
+      <c r="O32" s="11">
         <v>1281027</v>
       </c>
-      <c r="H32" s="11">
+      <c r="P32" s="11">
         <v>957214</v>
       </c>
-      <c r="I32" s="11">
+      <c r="Q32" s="11">
         <v>1165441</v>
       </c>
-      <c r="J32" s="11">
+      <c r="R32" s="11">
         <v>400059</v>
       </c>
-      <c r="K32" s="11">
+      <c r="S32" s="11">
         <v>488203</v>
       </c>
-      <c r="L32" s="11">
+      <c r="T32" s="11">
         <v>476396</v>
       </c>
-      <c r="M32" s="11">
+      <c r="U32" s="11">
         <v>356299</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V32" s="11">
+        <v>1256943</v>
+      </c>
+      <c r="W32" s="11">
+        <v>1712786</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
+        <v>929448</v>
+      </c>
+      <c r="E33" s="15">
+        <v>1063330</v>
+      </c>
+      <c r="F33" s="15">
+        <v>1052449</v>
+      </c>
+      <c r="G33" s="15">
+        <v>1039302</v>
+      </c>
+      <c r="H33" s="15">
+        <v>1013044</v>
+      </c>
+      <c r="I33" s="15">
         <v>130134</v>
       </c>
-      <c r="E33" s="15">
+      <c r="J33" s="15">
+        <v>150959</v>
+      </c>
+      <c r="K33" s="15">
+        <v>132460</v>
+      </c>
+      <c r="L33" s="15">
+        <v>130134</v>
+      </c>
+      <c r="M33" s="15">
         <v>1209407</v>
       </c>
-      <c r="F33" s="15">
+      <c r="N33" s="15">
         <v>1207144</v>
       </c>
-      <c r="G33" s="15">
+      <c r="O33" s="15">
         <v>1203162</v>
       </c>
-      <c r="H33" s="15">
+      <c r="P33" s="15">
         <v>73647</v>
       </c>
-      <c r="I33" s="15">
+      <c r="Q33" s="15">
         <v>1564409</v>
       </c>
-      <c r="J33" s="15">
+      <c r="R33" s="15">
         <v>1576672</v>
       </c>
-      <c r="K33" s="15">
+      <c r="S33" s="15">
         <v>1559081</v>
       </c>
-      <c r="L33" s="15">
+      <c r="T33" s="15">
         <v>1141188</v>
       </c>
-      <c r="M33" s="15">
+      <c r="U33" s="15">
         <v>3478535</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V33" s="15">
+        <v>2336349</v>
+      </c>
+      <c r="W33" s="15">
+        <v>2337390</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
+        <v>638918</v>
+      </c>
+      <c r="E34" s="11">
+        <v>874966</v>
+      </c>
+      <c r="F34" s="11">
+        <v>943530</v>
+      </c>
+      <c r="G34" s="11">
+        <v>1204409</v>
+      </c>
+      <c r="H34" s="11">
+        <v>858588</v>
+      </c>
+      <c r="I34" s="11">
         <v>3830830</v>
       </c>
-      <c r="E34" s="11">
+      <c r="J34" s="11">
+        <v>1500466</v>
+      </c>
+      <c r="K34" s="11">
+        <v>2020288</v>
+      </c>
+      <c r="L34" s="11">
+        <v>3830830</v>
+      </c>
+      <c r="M34" s="11">
         <v>4537441</v>
       </c>
-      <c r="F34" s="11">
+      <c r="N34" s="11">
         <v>4752134</v>
       </c>
-      <c r="G34" s="11">
+      <c r="O34" s="11">
         <v>5794326</v>
       </c>
-      <c r="H34" s="11">
+      <c r="P34" s="11">
         <v>5780330</v>
       </c>
-      <c r="I34" s="11">
+      <c r="Q34" s="11">
         <v>7839005</v>
       </c>
-      <c r="J34" s="11">
+      <c r="R34" s="11">
         <v>4714531</v>
       </c>
-      <c r="K34" s="11">
+      <c r="S34" s="11">
         <v>4671268</v>
       </c>
-      <c r="L34" s="11">
+      <c r="T34" s="11">
         <v>5370951</v>
       </c>
-      <c r="M34" s="11">
+      <c r="U34" s="11">
         <v>5587489</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V34" s="11">
+        <v>5819939</v>
+      </c>
+      <c r="W34" s="11">
+        <v>6811576</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
+        <v>58573</v>
+      </c>
+      <c r="E35" s="15">
+        <v>10490</v>
+      </c>
+      <c r="F35" s="15">
+        <v>12681</v>
+      </c>
+      <c r="G35" s="15">
+        <v>27877</v>
+      </c>
+      <c r="H35" s="15">
+        <v>40014</v>
+      </c>
+      <c r="I35" s="15">
+        <v>122890</v>
+      </c>
+      <c r="J35" s="15">
+        <v>155128</v>
+      </c>
+      <c r="K35" s="15">
+        <v>299803</v>
+      </c>
+      <c r="L35" s="15">
         <v>1002568</v>
       </c>
-      <c r="E35" s="15">
+      <c r="M35" s="15">
         <v>81632</v>
       </c>
-      <c r="F35" s="15">
+      <c r="N35" s="15">
         <v>881699</v>
       </c>
-      <c r="G35" s="15">
+      <c r="O35" s="15">
         <v>729597</v>
       </c>
-      <c r="H35" s="15">
+      <c r="P35" s="15">
         <v>1070267</v>
       </c>
-      <c r="I35" s="15">
+      <c r="Q35" s="15">
         <v>382684</v>
       </c>
-      <c r="J35" s="15">
+      <c r="R35" s="15">
         <v>515112</v>
       </c>
-      <c r="K35" s="15">
+      <c r="S35" s="15">
         <v>574209</v>
       </c>
-      <c r="L35" s="15">
-        <v>835642</v>
-      </c>
-      <c r="M35" s="15">
+      <c r="T35" s="15">
+        <v>835641</v>
+      </c>
+      <c r="U35" s="15">
         <v>1010932</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V35" s="15">
+        <v>1120135</v>
+      </c>
+      <c r="W35" s="15">
+        <v>1091731</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
@@ -1831,262 +2745,502 @@
       <c r="M36" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N36" s="11">
+        <v>0</v>
+      </c>
+      <c r="O36" s="11">
+        <v>0</v>
+      </c>
+      <c r="P36" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>0</v>
+      </c>
+      <c r="R36" s="11">
+        <v>0</v>
+      </c>
+      <c r="S36" s="11">
+        <v>0</v>
+      </c>
+      <c r="T36" s="11">
+        <v>0</v>
+      </c>
+      <c r="U36" s="11">
+        <v>0</v>
+      </c>
+      <c r="V36" s="11">
+        <v>0</v>
+      </c>
+      <c r="W36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
+        <v>2772351</v>
+      </c>
+      <c r="E37" s="17">
+        <v>3358121</v>
+      </c>
+      <c r="F37" s="17">
+        <v>3124933</v>
+      </c>
+      <c r="G37" s="17">
+        <v>4165846</v>
+      </c>
+      <c r="H37" s="17">
+        <v>3090444</v>
+      </c>
+      <c r="I37" s="17">
+        <v>7395502</v>
+      </c>
+      <c r="J37" s="17">
+        <v>3065058</v>
+      </c>
+      <c r="K37" s="17">
+        <v>4696239</v>
+      </c>
+      <c r="L37" s="17">
         <v>8404806</v>
       </c>
-      <c r="E37" s="17">
+      <c r="M37" s="17">
         <v>7942059</v>
       </c>
-      <c r="F37" s="17">
+      <c r="N37" s="17">
         <v>10486329</v>
       </c>
-      <c r="G37" s="17">
+      <c r="O37" s="17">
         <v>11681813</v>
       </c>
-      <c r="H37" s="17">
+      <c r="P37" s="17">
         <v>10166574</v>
       </c>
-      <c r="I37" s="17">
+      <c r="Q37" s="17">
         <v>17640366</v>
       </c>
-      <c r="J37" s="17">
+      <c r="R37" s="17">
         <v>11888389</v>
       </c>
-      <c r="K37" s="17">
+      <c r="S37" s="17">
         <v>12195089</v>
       </c>
-      <c r="L37" s="17">
+      <c r="T37" s="17">
         <v>13249725</v>
       </c>
-      <c r="M37" s="17">
+      <c r="U37" s="17">
         <v>18352069</v>
       </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V37" s="17">
+        <v>18314174</v>
+      </c>
+      <c r="W37" s="17">
+        <v>23193584</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
         <v>0</v>
       </c>
       <c r="E38" s="11">
+        <v>0</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0</v>
+      </c>
+      <c r="G38" s="11">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11">
         <v>59150</v>
       </c>
-      <c r="F38" s="11">
-        <v>0</v>
-      </c>
-      <c r="G38" s="11">
-        <v>0</v>
-      </c>
-      <c r="H38" s="11">
-        <v>0</v>
-      </c>
-      <c r="I38" s="11">
-        <v>0</v>
-      </c>
       <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
+        <v>59150</v>
+      </c>
+      <c r="N38" s="11">
+        <v>0</v>
+      </c>
+      <c r="O38" s="11">
+        <v>0</v>
+      </c>
+      <c r="P38" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="11">
+        <v>0</v>
+      </c>
+      <c r="R38" s="11">
         <v>9804</v>
       </c>
-      <c r="K38" s="11">
+      <c r="S38" s="11">
         <v>9804</v>
       </c>
-      <c r="L38" s="11">
-        <v>0</v>
-      </c>
-      <c r="M38" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="T38" s="11">
+        <v>0</v>
+      </c>
+      <c r="U38" s="11">
+        <v>0</v>
+      </c>
+      <c r="V38" s="11">
+        <v>0</v>
+      </c>
+      <c r="W38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C39" s="15"/>
-      <c r="D39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>40</v>
+      <c r="D39" s="15">
+        <v>0</v>
+      </c>
+      <c r="E39" s="15">
+        <v>0</v>
+      </c>
+      <c r="F39" s="15">
+        <v>0</v>
+      </c>
+      <c r="G39" s="15">
+        <v>0</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J39" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L39" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M39" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="T39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="U39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="V39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="W39" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>0</v>
+        <v>204291</v>
       </c>
       <c r="E40" s="11">
-        <v>0</v>
+        <v>218312</v>
       </c>
       <c r="F40" s="11">
+        <v>4706</v>
+      </c>
+      <c r="G40" s="11">
+        <v>4706</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11">
+        <v>0</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="11">
+        <v>0</v>
+      </c>
+      <c r="N40" s="11">
         <v>30138</v>
       </c>
-      <c r="G40" s="11">
+      <c r="O40" s="11">
         <v>8910</v>
       </c>
-      <c r="H40" s="11">
+      <c r="P40" s="11">
         <v>45208</v>
       </c>
-      <c r="I40" s="11">
+      <c r="Q40" s="11">
         <v>30138</v>
       </c>
-      <c r="J40" s="11">
-        <v>0</v>
-      </c>
-      <c r="K40" s="11">
-        <v>0</v>
-      </c>
-      <c r="L40" s="11">
+      <c r="R40" s="11">
+        <v>0</v>
+      </c>
+      <c r="S40" s="11">
+        <v>0</v>
+      </c>
+      <c r="T40" s="11">
         <v>782971</v>
       </c>
-      <c r="M40" s="11">
+      <c r="U40" s="11">
         <v>782971</v>
       </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V40" s="11">
+        <v>0</v>
+      </c>
+      <c r="W40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
+        <v>256212</v>
+      </c>
+      <c r="E41" s="15">
+        <v>247618</v>
+      </c>
+      <c r="F41" s="15">
+        <v>245919</v>
+      </c>
+      <c r="G41" s="15">
+        <v>250203</v>
+      </c>
+      <c r="H41" s="15">
+        <v>312327</v>
+      </c>
+      <c r="I41" s="15">
         <v>372637</v>
       </c>
-      <c r="E41" s="15">
+      <c r="J41" s="15">
+        <v>369737</v>
+      </c>
+      <c r="K41" s="15">
+        <v>378193</v>
+      </c>
+      <c r="L41" s="15">
+        <v>372637</v>
+      </c>
+      <c r="M41" s="15">
         <v>369709</v>
       </c>
-      <c r="F41" s="15">
+      <c r="N41" s="15">
         <v>486048</v>
       </c>
-      <c r="G41" s="15">
+      <c r="O41" s="15">
         <v>488957</v>
       </c>
-      <c r="H41" s="15">
+      <c r="P41" s="15">
         <v>527673</v>
       </c>
-      <c r="I41" s="15">
+      <c r="Q41" s="15">
         <v>511172</v>
       </c>
-      <c r="J41" s="15">
+      <c r="R41" s="15">
         <v>719876</v>
       </c>
-      <c r="K41" s="15">
+      <c r="S41" s="15">
         <v>799774</v>
       </c>
-      <c r="L41" s="15">
+      <c r="T41" s="15">
         <v>798927</v>
       </c>
-      <c r="M41" s="15">
+      <c r="U41" s="15">
         <v>1136790</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V41" s="15">
+        <v>954670</v>
+      </c>
+      <c r="W41" s="15">
+        <v>946236</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
+        <v>460503</v>
+      </c>
+      <c r="E42" s="19">
+        <v>465930</v>
+      </c>
+      <c r="F42" s="19">
+        <v>250625</v>
+      </c>
+      <c r="G42" s="19">
+        <v>254909</v>
+      </c>
+      <c r="H42" s="19">
+        <v>312327</v>
+      </c>
+      <c r="I42" s="19">
+        <v>431787</v>
+      </c>
+      <c r="J42" s="19">
+        <v>369737</v>
+      </c>
+      <c r="K42" s="19">
+        <v>378193</v>
+      </c>
+      <c r="L42" s="19">
         <v>372637</v>
       </c>
-      <c r="E42" s="19">
+      <c r="M42" s="19">
         <v>428859</v>
       </c>
-      <c r="F42" s="19">
+      <c r="N42" s="19">
         <v>516186</v>
       </c>
-      <c r="G42" s="19">
+      <c r="O42" s="19">
         <v>497867</v>
       </c>
-      <c r="H42" s="19">
+      <c r="P42" s="19">
         <v>572881</v>
       </c>
-      <c r="I42" s="19">
+      <c r="Q42" s="19">
         <v>541310</v>
       </c>
-      <c r="J42" s="19">
+      <c r="R42" s="19">
         <v>729680</v>
       </c>
-      <c r="K42" s="19">
+      <c r="S42" s="19">
         <v>809578</v>
       </c>
-      <c r="L42" s="19">
+      <c r="T42" s="19">
         <v>1581898</v>
       </c>
-      <c r="M42" s="19">
+      <c r="U42" s="19">
         <v>1919761</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V42" s="19">
+        <v>954670</v>
+      </c>
+      <c r="W42" s="19">
+        <v>946236</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
+        <v>3232854</v>
+      </c>
+      <c r="E43" s="17">
+        <v>3824051</v>
+      </c>
+      <c r="F43" s="17">
+        <v>3375558</v>
+      </c>
+      <c r="G43" s="17">
+        <v>4420755</v>
+      </c>
+      <c r="H43" s="17">
+        <v>3402771</v>
+      </c>
+      <c r="I43" s="17">
+        <v>7827289</v>
+      </c>
+      <c r="J43" s="17">
+        <v>3434795</v>
+      </c>
+      <c r="K43" s="17">
+        <v>5074432</v>
+      </c>
+      <c r="L43" s="17">
         <v>8777443</v>
       </c>
-      <c r="E43" s="17">
+      <c r="M43" s="17">
         <v>8370918</v>
       </c>
-      <c r="F43" s="17">
+      <c r="N43" s="17">
         <v>11002515</v>
       </c>
-      <c r="G43" s="17">
+      <c r="O43" s="17">
         <v>12179680</v>
       </c>
-      <c r="H43" s="17">
+      <c r="P43" s="17">
         <v>10739455</v>
       </c>
-      <c r="I43" s="17">
+      <c r="Q43" s="17">
         <v>18181676</v>
       </c>
-      <c r="J43" s="17">
+      <c r="R43" s="17">
         <v>12618069</v>
       </c>
-      <c r="K43" s="17">
+      <c r="S43" s="17">
         <v>13004667</v>
       </c>
-      <c r="L43" s="17">
+      <c r="T43" s="17">
         <v>14831623</v>
       </c>
-      <c r="M43" s="17">
+      <c r="U43" s="17">
         <v>20271830</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V43" s="17">
+        <v>19268844</v>
+      </c>
+      <c r="W43" s="17">
+        <v>24139820</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -2099,46 +3253,86 @@
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
-        <v>2180000</v>
+        <v>700000</v>
       </c>
       <c r="E45" s="15">
-        <v>2180000</v>
+        <v>700000</v>
       </c>
       <c r="F45" s="15">
-        <v>2180000</v>
+        <v>700000</v>
       </c>
       <c r="G45" s="15">
-        <v>2180000</v>
+        <v>700000</v>
       </c>
       <c r="H45" s="15">
-        <v>2180000</v>
+        <v>700000</v>
       </c>
       <c r="I45" s="15">
         <v>2180000</v>
       </c>
       <c r="J45" s="15">
+        <v>700000</v>
+      </c>
+      <c r="K45" s="15">
+        <v>700000</v>
+      </c>
+      <c r="L45" s="15">
+        <v>2180000</v>
+      </c>
+      <c r="M45" s="15">
+        <v>2180000</v>
+      </c>
+      <c r="N45" s="15">
+        <v>2180000</v>
+      </c>
+      <c r="O45" s="15">
+        <v>2180000</v>
+      </c>
+      <c r="P45" s="15">
+        <v>2180000</v>
+      </c>
+      <c r="Q45" s="15">
+        <v>2180000</v>
+      </c>
+      <c r="R45" s="15">
         <v>4360000</v>
       </c>
-      <c r="K45" s="15">
+      <c r="S45" s="15">
         <v>4360000</v>
       </c>
-      <c r="L45" s="15">
+      <c r="T45" s="15">
         <v>4360000</v>
       </c>
-      <c r="M45" s="15">
+      <c r="U45" s="15">
         <v>4360000</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V45" s="15">
+        <v>4360000</v>
+      </c>
+      <c r="W45" s="15">
+        <v>6540000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -2171,10 +3365,40 @@
       <c r="M46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N46" s="11">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11">
+        <v>0</v>
+      </c>
+      <c r="P46" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="11">
+        <v>0</v>
+      </c>
+      <c r="R46" s="11">
+        <v>0</v>
+      </c>
+      <c r="S46" s="11">
+        <v>0</v>
+      </c>
+      <c r="T46" s="11">
+        <v>0</v>
+      </c>
+      <c r="U46" s="11">
+        <v>0</v>
+      </c>
+      <c r="V46" s="11">
+        <v>0</v>
+      </c>
+      <c r="W46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -2190,27 +3414,57 @@
         <v>0</v>
       </c>
       <c r="H47" s="15">
+        <v>0</v>
+      </c>
+      <c r="I47" s="15">
+        <v>0</v>
+      </c>
+      <c r="J47" s="15">
+        <v>1045014</v>
+      </c>
+      <c r="K47" s="15">
+        <v>1363865</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+      <c r="N47" s="15">
+        <v>0</v>
+      </c>
+      <c r="O47" s="15">
+        <v>0</v>
+      </c>
+      <c r="P47" s="15">
         <v>962986</v>
       </c>
-      <c r="I47" s="15">
+      <c r="Q47" s="15">
         <v>2090389</v>
       </c>
-      <c r="J47" s="15">
+      <c r="R47" s="15">
         <v>1000000</v>
       </c>
-      <c r="K47" s="15">
+      <c r="S47" s="15">
         <v>1000000</v>
       </c>
-      <c r="L47" s="15">
-        <v>0</v>
-      </c>
-      <c r="M47" s="15">
+      <c r="T47" s="15">
+        <v>0</v>
+      </c>
+      <c r="U47" s="15">
         <v>262230</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V47" s="15">
+        <v>2114892</v>
+      </c>
+      <c r="W47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -2226,99 +3480,189 @@
         <v>0</v>
       </c>
       <c r="H48" s="11">
+        <v>0</v>
+      </c>
+      <c r="I48" s="11">
+        <v>0</v>
+      </c>
+      <c r="J48" s="11">
+        <v>0</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0</v>
+      </c>
+      <c r="L48" s="11">
+        <v>0</v>
+      </c>
+      <c r="M48" s="11">
+        <v>0</v>
+      </c>
+      <c r="N48" s="11">
+        <v>0</v>
+      </c>
+      <c r="O48" s="11">
+        <v>0</v>
+      </c>
+      <c r="P48" s="11">
         <v>-130408</v>
       </c>
-      <c r="I48" s="11">
-        <v>0</v>
-      </c>
-      <c r="J48" s="11">
+      <c r="Q48" s="11">
+        <v>0</v>
+      </c>
+      <c r="R48" s="11">
         <v>-126667</v>
       </c>
-      <c r="K48" s="11">
+      <c r="S48" s="11">
         <v>-126667</v>
       </c>
-      <c r="L48" s="11">
+      <c r="T48" s="11">
         <v>-151195</v>
       </c>
-      <c r="M48" s="11">
+      <c r="U48" s="11">
         <v>-176628</v>
       </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V48" s="11">
+        <v>-168091</v>
+      </c>
+      <c r="W48" s="11">
+        <v>-185346</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="15">
-        <v>0</v>
-      </c>
-      <c r="E49" s="15">
-        <v>0</v>
-      </c>
-      <c r="F49" s="15">
-        <v>0</v>
-      </c>
-      <c r="G49" s="15">
-        <v>0</v>
+      <c r="D49" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="H49" s="15">
+        <v>0</v>
+      </c>
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="15">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
+        <v>0</v>
+      </c>
+      <c r="L49" s="15">
+        <v>0</v>
+      </c>
+      <c r="M49" s="15">
+        <v>0</v>
+      </c>
+      <c r="N49" s="15">
+        <v>0</v>
+      </c>
+      <c r="O49" s="15">
+        <v>0</v>
+      </c>
+      <c r="P49" s="15">
         <v>40957</v>
       </c>
-      <c r="I49" s="15">
-        <v>0</v>
-      </c>
-      <c r="J49" s="15">
+      <c r="Q49" s="15">
+        <v>0</v>
+      </c>
+      <c r="R49" s="15">
         <v>42542</v>
       </c>
-      <c r="K49" s="15">
+      <c r="S49" s="15">
         <v>42542</v>
       </c>
-      <c r="L49" s="15">
+      <c r="T49" s="15">
         <v>32123</v>
       </c>
-      <c r="M49" s="15">
+      <c r="U49" s="15">
         <v>32723</v>
       </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V49" s="15">
+        <v>35304</v>
+      </c>
+      <c r="W49" s="15">
+        <v>38129</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
+        <v>70000</v>
+      </c>
+      <c r="E50" s="11">
+        <v>70000</v>
+      </c>
+      <c r="F50" s="11">
+        <v>70000</v>
+      </c>
+      <c r="G50" s="11">
+        <v>70000</v>
+      </c>
+      <c r="H50" s="11">
+        <v>70000</v>
+      </c>
+      <c r="I50" s="11">
         <v>175834</v>
       </c>
-      <c r="E50" s="11">
+      <c r="J50" s="11">
+        <v>70000</v>
+      </c>
+      <c r="K50" s="11">
+        <v>70000</v>
+      </c>
+      <c r="L50" s="11">
+        <v>175834</v>
+      </c>
+      <c r="M50" s="11">
         <v>219637</v>
       </c>
-      <c r="F50" s="11">
+      <c r="N50" s="11">
         <v>275647</v>
       </c>
-      <c r="G50" s="11">
+      <c r="O50" s="11">
         <v>303246</v>
       </c>
-      <c r="H50" s="11">
+      <c r="P50" s="11">
         <v>321312</v>
       </c>
-      <c r="I50" s="11">
+      <c r="Q50" s="11">
         <v>343193</v>
       </c>
-      <c r="J50" s="11">
+      <c r="R50" s="11">
         <v>340123</v>
       </c>
-      <c r="K50" s="11">
+      <c r="S50" s="11">
         <v>361043</v>
       </c>
-      <c r="L50" s="11">
+      <c r="T50" s="11">
         <v>401954</v>
       </c>
-      <c r="M50" s="11">
+      <c r="U50" s="11">
         <v>452358</v>
       </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V50" s="11">
+        <v>553744</v>
+      </c>
+      <c r="W50" s="11">
+        <v>606938</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
@@ -2351,46 +3695,106 @@
       <c r="M51" s="15">
         <v>25000</v>
       </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="15">
+        <v>25000</v>
+      </c>
+      <c r="O51" s="15">
+        <v>25000</v>
+      </c>
+      <c r="P51" s="15">
+        <v>25000</v>
+      </c>
+      <c r="Q51" s="15">
+        <v>25000</v>
+      </c>
+      <c r="R51" s="15">
+        <v>25000</v>
+      </c>
+      <c r="S51" s="15">
+        <v>25000</v>
+      </c>
+      <c r="T51" s="15">
+        <v>25000</v>
+      </c>
+      <c r="U51" s="15">
+        <v>25000</v>
+      </c>
+      <c r="V51" s="15">
+        <v>25000</v>
+      </c>
+      <c r="W51" s="15">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C52" s="11"/>
-      <c r="D52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>40</v>
+      <c r="D52" s="11">
+        <v>0</v>
+      </c>
+      <c r="E52" s="11">
+        <v>0</v>
+      </c>
+      <c r="F52" s="11">
+        <v>0</v>
+      </c>
+      <c r="G52" s="11">
+        <v>0</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M52" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="R52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="S52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="T52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W52" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
@@ -2423,46 +3827,106 @@
       <c r="M53" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="15">
+        <v>0</v>
+      </c>
+      <c r="O53" s="15">
+        <v>0</v>
+      </c>
+      <c r="P53" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="15">
+        <v>0</v>
+      </c>
+      <c r="R53" s="15">
+        <v>0</v>
+      </c>
+      <c r="S53" s="15">
+        <v>0</v>
+      </c>
+      <c r="T53" s="15">
+        <v>0</v>
+      </c>
+      <c r="U53" s="15">
+        <v>0</v>
+      </c>
+      <c r="V53" s="15">
+        <v>0</v>
+      </c>
+      <c r="W53" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C54" s="11"/>
-      <c r="D54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>40</v>
+      <c r="D54" s="11">
+        <v>0</v>
+      </c>
+      <c r="E54" s="11">
+        <v>0</v>
+      </c>
+      <c r="F54" s="11">
+        <v>0</v>
+      </c>
+      <c r="G54" s="11">
+        <v>0</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L54" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="R54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="S54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="T54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W54" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
@@ -2495,116 +3959,236 @@
       <c r="M55" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="15">
+        <v>0</v>
+      </c>
+      <c r="O55" s="15">
+        <v>0</v>
+      </c>
+      <c r="P55" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="15">
+        <v>0</v>
+      </c>
+      <c r="R55" s="15">
+        <v>0</v>
+      </c>
+      <c r="S55" s="15">
+        <v>0</v>
+      </c>
+      <c r="T55" s="15">
+        <v>0</v>
+      </c>
+      <c r="U55" s="15">
+        <v>0</v>
+      </c>
+      <c r="V55" s="15">
+        <v>0</v>
+      </c>
+      <c r="W55" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
+        <v>277163</v>
+      </c>
+      <c r="E56" s="11">
+        <v>133231</v>
+      </c>
+      <c r="F56" s="11">
+        <v>5234</v>
+      </c>
+      <c r="G56" s="11">
+        <v>80742</v>
+      </c>
+      <c r="H56" s="11">
+        <v>337060</v>
+      </c>
+      <c r="I56" s="11">
+        <v>2207914</v>
+      </c>
+      <c r="J56" s="11">
+        <v>432374</v>
+      </c>
+      <c r="K56" s="11">
+        <v>1161790</v>
+      </c>
+      <c r="L56" s="11">
         <v>1242536</v>
       </c>
-      <c r="E56" s="11">
+      <c r="M56" s="11">
         <v>1950178</v>
       </c>
-      <c r="F56" s="11">
+      <c r="N56" s="11">
         <v>2211721</v>
       </c>
-      <c r="G56" s="11">
+      <c r="O56" s="11">
         <v>2736091</v>
       </c>
-      <c r="H56" s="11">
+      <c r="P56" s="11">
         <v>2916609</v>
       </c>
-      <c r="I56" s="11">
+      <c r="Q56" s="11">
         <v>1806357</v>
       </c>
-      <c r="J56" s="11">
+      <c r="R56" s="11">
         <v>1748027</v>
       </c>
-      <c r="K56" s="11">
+      <c r="S56" s="11">
         <v>2145403</v>
       </c>
-      <c r="L56" s="11">
+      <c r="T56" s="11">
         <v>2922818</v>
       </c>
-      <c r="M56" s="11">
+      <c r="U56" s="11">
         <v>1526073</v>
       </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V56" s="11">
+        <v>3452419</v>
+      </c>
+      <c r="W56" s="11">
+        <v>4463114</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
+        <v>1072163</v>
+      </c>
+      <c r="E57" s="17">
+        <v>928231</v>
+      </c>
+      <c r="F57" s="17">
+        <v>800234</v>
+      </c>
+      <c r="G57" s="17">
+        <v>875742</v>
+      </c>
+      <c r="H57" s="17">
+        <v>1132060</v>
+      </c>
+      <c r="I57" s="17">
+        <v>4588748</v>
+      </c>
+      <c r="J57" s="17">
+        <v>2272388</v>
+      </c>
+      <c r="K57" s="17">
+        <v>3320655</v>
+      </c>
+      <c r="L57" s="17">
         <v>3623370</v>
       </c>
-      <c r="E57" s="17">
+      <c r="M57" s="17">
         <v>4374815</v>
       </c>
-      <c r="F57" s="17">
+      <c r="N57" s="17">
         <v>4692368</v>
       </c>
-      <c r="G57" s="17">
+      <c r="O57" s="17">
         <v>5244337</v>
       </c>
-      <c r="H57" s="17">
+      <c r="P57" s="17">
         <v>6316456</v>
       </c>
-      <c r="I57" s="17">
+      <c r="Q57" s="17">
         <v>6444939</v>
       </c>
-      <c r="J57" s="17">
+      <c r="R57" s="17">
         <v>7389025</v>
       </c>
-      <c r="K57" s="17">
+      <c r="S57" s="17">
         <v>7807321</v>
       </c>
-      <c r="L57" s="17">
+      <c r="T57" s="17">
         <v>7590700</v>
       </c>
-      <c r="M57" s="17">
+      <c r="U57" s="17">
         <v>6481756</v>
       </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V57" s="17">
+        <v>10373268</v>
+      </c>
+      <c r="W57" s="17">
+        <v>11487835</v>
+      </c>
+    </row>
+    <row r="58" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
+        <v>4305017</v>
+      </c>
+      <c r="E58" s="19">
+        <v>4752282</v>
+      </c>
+      <c r="F58" s="19">
+        <v>4175792</v>
+      </c>
+      <c r="G58" s="19">
+        <v>5296497</v>
+      </c>
+      <c r="H58" s="19">
+        <v>4534831</v>
+      </c>
+      <c r="I58" s="19">
+        <v>12416037</v>
+      </c>
+      <c r="J58" s="19">
+        <v>5707183</v>
+      </c>
+      <c r="K58" s="19">
+        <v>8395087</v>
+      </c>
+      <c r="L58" s="19">
         <v>12400813</v>
       </c>
-      <c r="E58" s="19">
+      <c r="M58" s="19">
         <v>12745733</v>
       </c>
-      <c r="F58" s="19">
+      <c r="N58" s="19">
         <v>15694883</v>
       </c>
-      <c r="G58" s="19">
+      <c r="O58" s="19">
         <v>17424017</v>
       </c>
-      <c r="H58" s="19">
+      <c r="P58" s="19">
         <v>17055911</v>
       </c>
-      <c r="I58" s="19">
+      <c r="Q58" s="19">
         <v>24626615</v>
       </c>
-      <c r="J58" s="19">
+      <c r="R58" s="19">
         <v>20007094</v>
       </c>
-      <c r="K58" s="19">
+      <c r="S58" s="19">
         <v>20811988</v>
       </c>
-      <c r="L58" s="19">
+      <c r="T58" s="19">
         <v>22422323</v>
       </c>
-      <c r="M58" s="19">
+      <c r="U58" s="19">
         <v>26753586</v>
       </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V58" s="19">
+        <v>29642112</v>
+      </c>
+      <c r="W58" s="19">
+        <v>35627655</v>
+      </c>
+    </row>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2617,6 +4201,16 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
